--- a/Projects/dariodemenus/Jena_Nmin_Combined.xlsx
+++ b/Projects/dariodemenus/Jena_Nmin_Combined.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH86"/>
+  <dimension ref="A1:AG86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -466,19 +466,19 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
+          <t>dry soil + glass [g]</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>glass weight [g]</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>wet soil [g]</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>dry soil + glass [g]</t>
-        </is>
-      </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Nmin wet soil [g]</t>
@@ -486,45 +486,40 @@
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>...9</t>
+          <t>dry_soil_swc_g</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>dry_soil_swc_g</t>
+          <t>swc</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>swc</t>
+          <t>dry_soil_nmin_g</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>dry_soil_nmin_g</t>
+          <t>func.group</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>func.group</t>
+          <t>numgrass</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>numgrass</t>
+          <t>numsherb</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>numsherb</t>
+          <t>numtherb</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>numtherb</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>numleg</t>
         </is>
@@ -5467,7 +5462,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH92"/>
+  <dimension ref="A1:AG92"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5581,19 +5576,19 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
+          <t>dry soil + glass [g]</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>glass weight [g]</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>wet soil [g]</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>dry soil + glass [g]</t>
-        </is>
-      </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Nmin wet soil [g]</t>
@@ -5601,45 +5596,40 @@
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>...9</t>
+          <t>dry_soil_swc_g</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>dry_soil_swc_g</t>
+          <t>swc</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>swc</t>
+          <t>dry_soil_nmin_g</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>dry_soil_nmin_g</t>
+          <t>func.group</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>func.group</t>
+          <t>numgrass</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>numgrass</t>
+          <t>numsherb</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>numsherb</t>
+          <t>numtherb</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>numtherb</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>numleg</t>
         </is>
@@ -5655,10 +5645,10 @@
         <v>3.202791617140631</v>
       </c>
       <c r="D2">
-        <v>1.067597205713544</v>
+        <v>4.481561896511799</v>
       </c>
       <c r="E2">
-        <v>4.270388822854175</v>
+        <v>7.684353513652431</v>
       </c>
       <c r="F2">
         <v>16</v>
@@ -5684,28 +5674,31 @@
         <v>0.273</v>
       </c>
       <c r="U2">
-        <v>0.091</v>
+        <v>0.382</v>
       </c>
       <c r="V2">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="W2">
         <v>81.999</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>4.817</v>
-      </c>
-      <c r="X2">
-        <v>86.09999999999999</v>
       </c>
       <c r="Y2">
         <v>5.006</v>
       </c>
+      <c r="Z2">
+        <v>4.100999999999999</v>
+      </c>
       <c r="AA2">
-        <v>4.100999999999999</v>
+        <v>0.1745915630334068</v>
       </c>
       <c r="AB2">
-        <v>0.1745915630334068</v>
+        <v>4.261906996055636</v>
       </c>
       <c r="AC2">
-        <v>4.261906996055636</v>
+        <v>4</v>
       </c>
       <c r="AD2">
         <v>4</v>
@@ -5717,9 +5710,6 @@
         <v>4</v>
       </c>
       <c r="AG2">
-        <v>4</v>
-      </c>
-      <c r="AH2">
         <v>4</v>
       </c>
     </row>
@@ -5733,10 +5723,10 @@
         <v>2.176366794342309</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4.220163022531787</v>
       </c>
       <c r="E3">
-        <v>2.176366794342309</v>
+        <v>6.396529816874096</v>
       </c>
       <c r="F3">
         <v>8</v>
@@ -5762,42 +5752,42 @@
         <v>0.197</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="V3">
+        <v>86.505</v>
+      </c>
+      <c r="W3">
         <v>81.92</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>5.042</v>
-      </c>
-      <c r="X3">
-        <v>86.505</v>
       </c>
       <c r="Y3">
         <v>4.977</v>
       </c>
+      <c r="Z3">
+        <v>4.584999999999994</v>
+      </c>
       <c r="AA3">
-        <v>4.584999999999994</v>
+        <v>0.09967284623773319</v>
       </c>
       <c r="AB3">
-        <v>0.09967284623773319</v>
+        <v>4.525891511305032</v>
       </c>
       <c r="AC3">
-        <v>4.525891511305032</v>
+        <v>2</v>
       </c>
       <c r="AD3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG3">
-        <v>4</v>
-      </c>
-      <c r="AH3">
         <v>0</v>
       </c>
     </row>
@@ -5811,10 +5801,10 @@
         <v>2.77699666765907</v>
       </c>
       <c r="D4">
-        <v>1.165914631459915</v>
+        <v>4.048903538342614</v>
       </c>
       <c r="E4">
-        <v>3.942911299118985</v>
+        <v>6.825900206001684</v>
       </c>
       <c r="F4">
         <v>8</v>
@@ -5840,28 +5830,31 @@
         <v>0.262</v>
       </c>
       <c r="U4">
-        <v>0.11</v>
+        <v>0.382</v>
       </c>
       <c r="V4">
+        <v>86.761</v>
+      </c>
+      <c r="W4">
         <v>81.99299999999999</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>5.081</v>
-      </c>
-      <c r="X4">
-        <v>86.761</v>
       </c>
       <c r="Y4">
         <v>5.027</v>
       </c>
+      <c r="Z4">
+        <v>4.768000000000001</v>
+      </c>
       <c r="AA4">
-        <v>4.768000000000001</v>
+        <v>0.06564597315436235</v>
       </c>
       <c r="AB4">
-        <v>0.06564597315436235</v>
+        <v>4.717326510529424</v>
       </c>
       <c r="AC4">
-        <v>4.717326510529424</v>
+        <v>3</v>
       </c>
       <c r="AD4">
         <v>3</v>
@@ -5870,12 +5863,9 @@
         <v>3</v>
       </c>
       <c r="AF4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
         <v>2</v>
       </c>
     </row>
@@ -5889,10 +5879,10 @@
         <v>3.062942061077341</v>
       </c>
       <c r="D5">
-        <v>0.8892412435385829</v>
+        <v>4.193705617675787</v>
       </c>
       <c r="E5">
-        <v>3.952183304615924</v>
+        <v>7.256647678753128</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -5918,31 +5908,34 @@
         <v>0.279</v>
       </c>
       <c r="U5">
-        <v>0.081</v>
+        <v>0.382</v>
       </c>
       <c r="V5">
+        <v>86.06</v>
+      </c>
+      <c r="W5">
         <v>81.54900000000001</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>4.984</v>
-      </c>
-      <c r="X5">
-        <v>86.06</v>
       </c>
       <c r="Y5">
         <v>5.032</v>
       </c>
+      <c r="Z5">
+        <v>4.510999999999996</v>
+      </c>
       <c r="AA5">
-        <v>4.510999999999996</v>
+        <v>0.1048547993792961</v>
       </c>
       <c r="AB5">
-        <v>0.1048547993792961</v>
+        <v>4.554444622792933</v>
       </c>
       <c r="AC5">
-        <v>4.554444622792933</v>
+        <v>4</v>
       </c>
       <c r="AD5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE5">
         <v>1</v>
@@ -5951,9 +5944,6 @@
         <v>1</v>
       </c>
       <c r="AG5">
-        <v>1</v>
-      </c>
-      <c r="AH5">
         <v>1</v>
       </c>
     </row>
@@ -5967,10 +5957,10 @@
         <v>2.199446230796715</v>
       </c>
       <c r="D6">
-        <v>0.3126116470167919</v>
+        <v>4.264916041443375</v>
       </c>
       <c r="E6">
-        <v>2.512057877813507</v>
+        <v>6.46436227224009</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -5996,31 +5986,34 @@
         <v>0.197</v>
       </c>
       <c r="U6">
-        <v>0.028</v>
+        <v>0.382</v>
       </c>
       <c r="V6">
+        <v>87.306</v>
+      </c>
+      <c r="W6">
         <v>82.878</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>4.92</v>
-      </c>
-      <c r="X6">
-        <v>87.306</v>
       </c>
       <c r="Y6">
         <v>4.976</v>
       </c>
+      <c r="Z6">
+        <v>4.427999999999997</v>
+      </c>
       <c r="AA6">
-        <v>4.427999999999997</v>
+        <v>0.1111111111111118</v>
       </c>
       <c r="AB6">
-        <v>0.1111111111111118</v>
+        <v>4.478399999999997</v>
       </c>
       <c r="AC6">
-        <v>4.478399999999997</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -6029,9 +6022,6 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
         <v>2</v>
       </c>
     </row>
@@ -6045,10 +6035,10 @@
         <v>1.619607848947281</v>
       </c>
       <c r="D7">
-        <v>0.6099821768762487</v>
+        <v>4.017468820115982</v>
       </c>
       <c r="E7">
-        <v>2.229590025823529</v>
+        <v>5.637076669063263</v>
       </c>
       <c r="F7">
         <v>16</v>
@@ -6074,42 +6064,42 @@
         <v>0.154</v>
       </c>
       <c r="U7">
-        <v>0.058</v>
+        <v>0.382</v>
       </c>
       <c r="V7">
+        <v>86.587</v>
+      </c>
+      <c r="W7">
         <v>81.88200000000001</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>4.969</v>
-      </c>
-      <c r="X7">
-        <v>86.587</v>
       </c>
       <c r="Y7">
         <v>5.021</v>
       </c>
+      <c r="Z7">
+        <v>4.704999999999998</v>
+      </c>
       <c r="AA7">
-        <v>4.704999999999998</v>
+        <v>0.05611052072263594</v>
       </c>
       <c r="AB7">
-        <v>0.05611052072263594</v>
+        <v>4.754237271080698</v>
       </c>
       <c r="AC7">
-        <v>4.754237271080698</v>
+        <v>2</v>
       </c>
       <c r="AD7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
         <v>8</v>
       </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
       <c r="AG7">
-        <v>8</v>
-      </c>
-      <c r="AH7">
         <v>0</v>
       </c>
     </row>
@@ -6123,10 +6113,10 @@
         <v>1.683324459864734</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>4.018937147927053</v>
       </c>
       <c r="E8">
-        <v>1.683324459864734</v>
+        <v>5.702261607791787</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -6152,42 +6142,42 @@
         <v>0.16</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="V8">
+        <v>87.322</v>
+      </c>
+      <c r="W8">
         <v>82.595</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>5.005</v>
-      </c>
-      <c r="X8">
-        <v>87.322</v>
       </c>
       <c r="Y8">
         <v>5.032</v>
       </c>
+      <c r="Z8">
+        <v>4.727000000000004</v>
+      </c>
       <c r="AA8">
-        <v>4.727000000000004</v>
+        <v>0.05881108525491766</v>
       </c>
       <c r="AB8">
-        <v>0.05881108525491766</v>
+        <v>4.752500299700303</v>
       </c>
       <c r="AC8">
-        <v>4.752500299700303</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG8">
-        <v>2</v>
-      </c>
-      <c r="AH8">
         <v>0</v>
       </c>
     </row>
@@ -6201,10 +6191,10 @@
         <v>4.455734001567289</v>
       </c>
       <c r="D9">
-        <v>1.016599505211954</v>
+        <v>4.13128735096773</v>
       </c>
       <c r="E9">
-        <v>5.472333506779243</v>
+        <v>8.587021352535018</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -6230,31 +6220,34 @@
         <v>0.412</v>
       </c>
       <c r="U9">
-        <v>0.094</v>
+        <v>0.382</v>
       </c>
       <c r="V9">
+        <v>86.355</v>
+      </c>
+      <c r="W9">
         <v>81.71899999999999</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>5.093</v>
-      </c>
-      <c r="X9">
-        <v>86.355</v>
       </c>
       <c r="Y9">
         <v>5.079</v>
       </c>
+      <c r="Z9">
+        <v>4.63600000000001</v>
+      </c>
       <c r="AA9">
-        <v>4.63600000000001</v>
+        <v>0.09857635893010981</v>
       </c>
       <c r="AB9">
-        <v>0.09857635893010981</v>
+        <v>4.623256234046741</v>
       </c>
       <c r="AC9">
-        <v>4.623256234046741</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -6263,9 +6256,6 @@
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
         <v>1</v>
       </c>
     </row>
@@ -6279,10 +6269,10 @@
         <v>2.265596740086185</v>
       </c>
       <c r="D10">
-        <v>1.615078864219854</v>
+        <v>4.284445320361003</v>
       </c>
       <c r="E10">
-        <v>3.880675604306039</v>
+        <v>6.550042060447188</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -6308,42 +6298,42 @@
         <v>0.202</v>
       </c>
       <c r="U10">
-        <v>0.144</v>
+        <v>0.382</v>
       </c>
       <c r="V10">
+        <v>86.642</v>
+      </c>
+      <c r="W10">
         <v>82.13800000000001</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>5.09</v>
-      </c>
-      <c r="X10">
-        <v>86.642</v>
       </c>
       <c r="Y10">
         <v>5.038</v>
       </c>
+      <c r="Z10">
+        <v>4.503999999999991</v>
+      </c>
       <c r="AA10">
-        <v>4.503999999999991</v>
+        <v>0.1301065719360592</v>
       </c>
       <c r="AB10">
-        <v>0.1301065719360592</v>
+        <v>4.457986640471503</v>
       </c>
       <c r="AC10">
-        <v>4.457986640471503</v>
+        <v>1</v>
       </c>
       <c r="AD10">
         <v>1</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
         <v>0</v>
       </c>
     </row>
@@ -6357,10 +6347,10 @@
         <v>9.153343095325514</v>
       </c>
       <c r="D11">
-        <v>1.566788457758421</v>
+        <v>3.937586781998138</v>
       </c>
       <c r="E11">
-        <v>10.72013155308393</v>
+        <v>13.09092987732365</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6386,28 +6376,31 @@
         <v>0.888</v>
       </c>
       <c r="U11">
-        <v>0.152</v>
+        <v>0.382</v>
       </c>
       <c r="V11">
+        <v>86.611</v>
+      </c>
+      <c r="W11">
         <v>81.724</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>5.114</v>
-      </c>
-      <c r="X11">
-        <v>86.611</v>
       </c>
       <c r="Y11">
         <v>5.076</v>
       </c>
+      <c r="Z11">
+        <v>4.887</v>
+      </c>
       <c r="AA11">
-        <v>4.887</v>
+        <v>0.04644976468180876</v>
       </c>
       <c r="AB11">
-        <v>0.04644976468180876</v>
+        <v>4.850686742276105</v>
       </c>
       <c r="AC11">
-        <v>4.850686742276105</v>
+        <v>0</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -6419,9 +6412,6 @@
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
         <v>0</v>
       </c>
     </row>
@@ -6435,10 +6425,10 @@
         <v>2.36150077440147</v>
       </c>
       <c r="D12">
-        <v>0.6480397473938918</v>
+        <v>4.195782771262148</v>
       </c>
       <c r="E12">
-        <v>3.009540521795362</v>
+        <v>6.557283545663618</v>
       </c>
       <c r="F12">
         <v>16</v>
@@ -6464,42 +6454,42 @@
         <v>0.215</v>
       </c>
       <c r="U12">
-        <v>0.059</v>
+        <v>0.382</v>
       </c>
       <c r="V12">
+        <v>86.944</v>
+      </c>
+      <c r="W12">
         <v>82.42400000000001</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>5.055</v>
-      </c>
-      <c r="X12">
-        <v>86.944</v>
       </c>
       <c r="Y12">
         <v>5.091</v>
       </c>
+      <c r="Z12">
+        <v>4.519999999999996</v>
+      </c>
       <c r="AA12">
-        <v>4.519999999999996</v>
+        <v>0.118362831858408</v>
       </c>
       <c r="AB12">
-        <v>0.118362831858408</v>
+        <v>4.552189910979225</v>
       </c>
       <c r="AC12">
-        <v>4.552189910979225</v>
+        <v>1</v>
       </c>
       <c r="AD12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG12">
-        <v>16</v>
-      </c>
-      <c r="AH12">
         <v>0</v>
       </c>
     </row>
@@ -6513,10 +6503,10 @@
         <v>12.19892505051761</v>
       </c>
       <c r="D13">
-        <v>2.645000571701014</v>
+        <v>4.355130251680118</v>
       </c>
       <c r="E13">
-        <v>14.84392562221862</v>
+        <v>16.55405530219772</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -6542,31 +6532,34 @@
         <v>1.07</v>
       </c>
       <c r="U13">
-        <v>0.232</v>
+        <v>0.382</v>
       </c>
       <c r="V13">
+        <v>86.735</v>
+      </c>
+      <c r="W13">
         <v>82.46899999999999</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>4.814</v>
-      </c>
-      <c r="X13">
-        <v>86.735</v>
       </c>
       <c r="Y13">
         <v>4.949</v>
       </c>
+      <c r="Z13">
+        <v>4.266000000000005</v>
+      </c>
       <c r="AA13">
-        <v>4.266000000000005</v>
+        <v>0.1284575714955448</v>
       </c>
       <c r="AB13">
-        <v>0.1284575714955448</v>
+        <v>4.385632322393026</v>
       </c>
       <c r="AC13">
-        <v>4.385632322393026</v>
+        <v>1</v>
       </c>
       <c r="AD13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13">
         <v>0</v>
@@ -6575,9 +6568,6 @@
         <v>0</v>
       </c>
       <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
         <v>8</v>
       </c>
     </row>
@@ -6591,10 +6581,10 @@
         <v>2.330954571876566</v>
       </c>
       <c r="D14">
-        <v>1.583289897878422</v>
+        <v>4.200116256871927</v>
       </c>
       <c r="E14">
-        <v>3.914244469754989</v>
+        <v>6.531070828748494</v>
       </c>
       <c r="F14">
         <v>4</v>
@@ -6620,31 +6610,34 @@
         <v>0.212</v>
       </c>
       <c r="U14">
-        <v>0.144</v>
+        <v>0.382</v>
       </c>
       <c r="V14">
+        <v>87.312</v>
+      </c>
+      <c r="W14">
         <v>82.66200000000001</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>5.126</v>
-      </c>
-      <c r="X14">
-        <v>87.312</v>
       </c>
       <c r="Y14">
         <v>5.013</v>
       </c>
+      <c r="Z14">
+        <v>4.649999999999991</v>
+      </c>
       <c r="AA14">
-        <v>4.649999999999991</v>
+        <v>0.1023655913978515</v>
       </c>
       <c r="AB14">
-        <v>0.1023655913978515</v>
+        <v>4.547493172063978</v>
       </c>
       <c r="AC14">
-        <v>4.547493172063978</v>
+        <v>1</v>
       </c>
       <c r="AD14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -6653,9 +6646,6 @@
         <v>0</v>
       </c>
       <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
         <v>4</v>
       </c>
     </row>
@@ -6669,10 +6659,10 @@
         <v>2.920463171667679</v>
       </c>
       <c r="D15">
-        <v>0.4357142635149359</v>
+        <v>4.498455369262311</v>
       </c>
       <c r="E15">
-        <v>3.356177435182615</v>
+        <v>7.41891854092999</v>
       </c>
       <c r="F15">
         <v>8</v>
@@ -6698,31 +6688,34 @@
         <v>0.248</v>
       </c>
       <c r="U15">
-        <v>0.037</v>
+        <v>0.382</v>
       </c>
       <c r="V15">
+        <v>86.107</v>
+      </c>
+      <c r="W15">
         <v>81.779</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>4.85</v>
-      </c>
-      <c r="X15">
-        <v>86.107</v>
       </c>
       <c r="Y15">
         <v>4.758</v>
       </c>
+      <c r="Z15">
+        <v>4.328000000000003</v>
+      </c>
       <c r="AA15">
-        <v>4.328000000000003</v>
+        <v>0.1206099815157108</v>
       </c>
       <c r="AB15">
-        <v>0.1206099815157108</v>
+        <v>4.245901855670106</v>
       </c>
       <c r="AC15">
-        <v>4.245901855670106</v>
+        <v>4</v>
       </c>
       <c r="AD15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE15">
         <v>2</v>
@@ -6731,9 +6724,6 @@
         <v>2</v>
       </c>
       <c r="AG15">
-        <v>2</v>
-      </c>
-      <c r="AH15">
         <v>2</v>
       </c>
     </row>
@@ -6747,10 +6737,10 @@
         <v>1.801286859047716</v>
       </c>
       <c r="D16">
-        <v>0.4257587121385512</v>
+        <v>4.170252000946835</v>
       </c>
       <c r="E16">
-        <v>2.227045571186268</v>
+        <v>5.971538859994552</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -6776,42 +6766,42 @@
         <v>0.165</v>
       </c>
       <c r="U16">
-        <v>0.039</v>
+        <v>0.382</v>
       </c>
       <c r="V16">
+        <v>86.258</v>
+      </c>
+      <c r="W16">
         <v>81.62</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>5.123</v>
-      </c>
-      <c r="X16">
-        <v>86.258</v>
       </c>
       <c r="Y16">
         <v>5.059</v>
       </c>
+      <c r="Z16">
+        <v>4.637999999999991</v>
+      </c>
       <c r="AA16">
-        <v>4.637999999999991</v>
+        <v>0.1045709357481695</v>
       </c>
       <c r="AB16">
-        <v>0.1045709357481695</v>
+        <v>4.580058949834073</v>
       </c>
       <c r="AC16">
-        <v>4.580058949834073</v>
+        <v>1</v>
       </c>
       <c r="AD16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16">
-        <v>1</v>
-      </c>
-      <c r="AH16">
         <v>0</v>
       </c>
     </row>
@@ -6825,10 +6815,10 @@
         <v>3.212260215688977</v>
       </c>
       <c r="D17">
-        <v>0.2807919768958897</v>
+        <v>4.290501406969194</v>
       </c>
       <c r="E17">
-        <v>3.493052192584867</v>
+        <v>7.502761622658172</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -6854,42 +6844,42 @@
         <v>0.286</v>
       </c>
       <c r="U17">
-        <v>0.025</v>
+        <v>0.382</v>
       </c>
       <c r="V17">
+        <v>87.215</v>
+      </c>
+      <c r="W17">
         <v>82.869</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>4.852</v>
-      </c>
-      <c r="X17">
-        <v>87.215</v>
       </c>
       <c r="Y17">
         <v>4.97</v>
       </c>
+      <c r="Z17">
+        <v>4.346000000000004</v>
+      </c>
       <c r="AA17">
-        <v>4.346000000000004</v>
+        <v>0.1164289001380571</v>
       </c>
       <c r="AB17">
-        <v>0.1164289001380571</v>
+        <v>4.451694146743614</v>
       </c>
       <c r="AC17">
-        <v>4.451694146743614</v>
+        <v>2</v>
       </c>
       <c r="AD17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17">
         <v>1</v>
       </c>
       <c r="AF17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
         <v>0</v>
       </c>
     </row>
@@ -6903,10 +6893,10 @@
         <v>1.962806317888441</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>4.097224117122319</v>
       </c>
       <c r="E18">
-        <v>1.962806317888441</v>
+        <v>6.060030435010759</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -6932,42 +6922,42 @@
         <v>0.183</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="V18">
+        <v>86.006</v>
+      </c>
+      <c r="W18">
         <v>81.256</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>5.11</v>
-      </c>
-      <c r="X18">
-        <v>86.006</v>
       </c>
       <c r="Y18">
         <v>5.015</v>
       </c>
+      <c r="Z18">
+        <v>4.75</v>
+      </c>
       <c r="AA18">
-        <v>4.75</v>
+        <v>0.07578947368421059</v>
       </c>
       <c r="AB18">
-        <v>0.07578947368421059</v>
+        <v>4.661692759295498</v>
       </c>
       <c r="AC18">
-        <v>4.661692759295498</v>
+        <v>2</v>
       </c>
       <c r="AD18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG18">
-        <v>1</v>
-      </c>
-      <c r="AH18">
         <v>0</v>
       </c>
     </row>
@@ -6981,10 +6971,10 @@
         <v>3.690950634996554</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>4.378705411703986</v>
       </c>
       <c r="E19">
-        <v>3.690950634996554</v>
+        <v>8.069656046700539</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -7010,42 +7000,42 @@
         <v>0.322</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="V19">
+        <v>86.889</v>
+      </c>
+      <c r="W19">
         <v>82.605</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>4.832</v>
-      </c>
-      <c r="X19">
-        <v>86.889</v>
       </c>
       <c r="Y19">
         <v>4.92</v>
       </c>
+      <c r="Z19">
+        <v>4.283999999999992</v>
+      </c>
       <c r="AA19">
-        <v>4.283999999999992</v>
+        <v>0.1279178338001889</v>
       </c>
       <c r="AB19">
-        <v>0.1279178338001889</v>
+        <v>4.362019867549661</v>
       </c>
       <c r="AC19">
-        <v>4.362019867549661</v>
+        <v>1</v>
       </c>
       <c r="AD19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
         <v>0</v>
       </c>
     </row>
@@ -7059,10 +7049,10 @@
         <v>2.098019896462057</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>4.477338549991654</v>
       </c>
       <c r="E20">
-        <v>2.098019896462057</v>
+        <v>6.575358446453711</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -7088,42 +7078,42 @@
         <v>0.179</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="V20">
+        <v>85.517</v>
+      </c>
+      <c r="W20">
         <v>81.342</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>4.913</v>
-      </c>
-      <c r="X20">
-        <v>85.517</v>
       </c>
       <c r="Y20">
         <v>5.02</v>
       </c>
+      <c r="Z20">
+        <v>4.174999999999997</v>
+      </c>
       <c r="AA20">
-        <v>4.174999999999997</v>
+        <v>0.1767664670658691</v>
       </c>
       <c r="AB20">
-        <v>0.1767664670658691</v>
+        <v>4.265927132098511</v>
       </c>
       <c r="AC20">
-        <v>4.265927132098511</v>
+        <v>3</v>
       </c>
       <c r="AD20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>1</v>
       </c>
       <c r="AG20">
-        <v>1</v>
-      </c>
-      <c r="AH20">
         <v>0</v>
       </c>
     </row>
@@ -7137,10 +7127,10 @@
         <v>3.766041484918106</v>
       </c>
       <c r="D21">
-        <v>0.2451269605567997</v>
+        <v>4.256295406031705</v>
       </c>
       <c r="E21">
-        <v>4.011168445474905</v>
+        <v>8.022336890949811</v>
       </c>
       <c r="F21">
         <v>16</v>
@@ -7166,44 +7156,44 @@
         <v>0.338</v>
       </c>
       <c r="U21">
-        <v>0.022</v>
+        <v>0.382</v>
       </c>
       <c r="V21">
+        <v>87.276</v>
+      </c>
+      <c r="W21">
         <v>82.79300000000001</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>5.014</v>
-      </c>
-      <c r="X21">
-        <v>87.276</v>
       </c>
       <c r="Y21">
         <v>5.019</v>
       </c>
+      <c r="Z21">
+        <v>4.48299999999999</v>
+      </c>
       <c r="AA21">
-        <v>4.48299999999999</v>
+        <v>0.1184474682132526</v>
       </c>
       <c r="AB21">
-        <v>0.1184474682132526</v>
+        <v>4.487470482648574</v>
       </c>
       <c r="AC21">
-        <v>4.487470482648574</v>
+        <v>3</v>
       </c>
       <c r="AD21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AF21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG21">
         <v>5</v>
       </c>
-      <c r="AH21">
-        <v>5</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7215,10 +7205,10 @@
         <v>2.24777059496957</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>4.49554118993914</v>
       </c>
       <c r="E22">
-        <v>2.24777059496957</v>
+        <v>6.743311784908711</v>
       </c>
       <c r="F22">
         <v>4</v>
@@ -7244,42 +7234,42 @@
         <v>0.191</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="V22">
+        <v>85.979</v>
+      </c>
+      <c r="W22">
         <v>81.675</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>4.977</v>
-      </c>
-      <c r="X22">
-        <v>85.979</v>
       </c>
       <c r="Y22">
         <v>4.913</v>
       </c>
+      <c r="Z22">
+        <v>4.304000000000002</v>
+      </c>
       <c r="AA22">
-        <v>4.304000000000002</v>
+        <v>0.156366171003717</v>
       </c>
       <c r="AB22">
-        <v>0.156366171003717</v>
+        <v>4.248654209363072</v>
       </c>
       <c r="AC22">
-        <v>4.248654209363072</v>
+        <v>2</v>
       </c>
       <c r="AD22">
         <v>2</v>
       </c>
       <c r="AE22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG22">
-        <v>2</v>
-      </c>
-      <c r="AH22">
         <v>0</v>
       </c>
     </row>
@@ -7293,10 +7283,10 @@
         <v>1.717862363013004</v>
       </c>
       <c r="D23">
-        <v>0.4778160215003057</v>
+        <v>4.345850481264685</v>
       </c>
       <c r="E23">
-        <v>2.19567838451331</v>
+        <v>6.063712844277689</v>
       </c>
       <c r="F23">
         <v>60</v>
@@ -7322,42 +7312,42 @@
         <v>0.151</v>
       </c>
       <c r="U23">
-        <v>0.042</v>
+        <v>0.382</v>
       </c>
       <c r="V23">
+        <v>87.533</v>
+      </c>
+      <c r="W23">
         <v>83.08799999999999</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>5.067</v>
-      </c>
-      <c r="X23">
-        <v>87.533</v>
       </c>
       <c r="Y23">
         <v>5.01</v>
       </c>
+      <c r="Z23">
+        <v>4.445000000000007</v>
+      </c>
       <c r="AA23">
-        <v>4.445000000000007</v>
+        <v>0.1399325084364436</v>
       </c>
       <c r="AB23">
-        <v>0.1399325084364436</v>
+        <v>4.39499703966845</v>
       </c>
       <c r="AC23">
-        <v>4.39499703966845</v>
+        <v>4</v>
       </c>
       <c r="AD23">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AE23">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AF23">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AG23">
-        <v>20</v>
-      </c>
-      <c r="AH23">
         <v>12</v>
       </c>
     </row>
@@ -7371,10 +7361,10 @@
         <v>4.160913466409013</v>
       </c>
       <c r="D24">
-        <v>1.575035040957084</v>
+        <v>4.490025266011986</v>
       </c>
       <c r="E24">
-        <v>5.735948507366096</v>
+        <v>8.650938732420999</v>
       </c>
       <c r="F24">
         <v>4</v>
@@ -7400,31 +7390,34 @@
         <v>0.354</v>
       </c>
       <c r="U24">
-        <v>0.134</v>
+        <v>0.382</v>
       </c>
       <c r="V24">
+        <v>87.13500000000001</v>
+      </c>
+      <c r="W24">
         <v>82.944</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>4.866</v>
-      </c>
-      <c r="X24">
-        <v>87.13500000000001</v>
       </c>
       <c r="Y24">
         <v>4.939</v>
       </c>
+      <c r="Z24">
+        <v>4.191000000000003</v>
+      </c>
       <c r="AA24">
-        <v>4.191000000000003</v>
+        <v>0.1610594130279162</v>
       </c>
       <c r="AB24">
-        <v>0.1610594130279162</v>
+        <v>4.253873612823678</v>
       </c>
       <c r="AC24">
-        <v>4.253873612823678</v>
+        <v>4</v>
       </c>
       <c r="AD24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE24">
         <v>1</v>
@@ -7433,9 +7426,6 @@
         <v>1</v>
       </c>
       <c r="AG24">
-        <v>1</v>
-      </c>
-      <c r="AH24">
         <v>1</v>
       </c>
     </row>
@@ -7449,10 +7439,10 @@
         <v>3.289076451414034</v>
       </c>
       <c r="D25">
-        <v>0.7321972312335129</v>
+        <v>4.439672100495269</v>
       </c>
       <c r="E25">
-        <v>4.021273682647546</v>
+        <v>7.728748551909303</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -7478,42 +7468,42 @@
         <v>0.283</v>
       </c>
       <c r="U25">
-        <v>0.063</v>
+        <v>0.382</v>
       </c>
       <c r="V25">
+        <v>86.19</v>
+      </c>
+      <c r="W25">
         <v>81.994</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>4.903</v>
-      </c>
-      <c r="X25">
-        <v>86.19</v>
       </c>
       <c r="Y25">
         <v>5.027</v>
       </c>
+      <c r="Z25">
+        <v>4.195999999999998</v>
+      </c>
       <c r="AA25">
-        <v>4.195999999999998</v>
+        <v>0.1684938036224981</v>
       </c>
       <c r="AB25">
-        <v>0.1684938036224981</v>
+        <v>4.302119518662042</v>
       </c>
       <c r="AC25">
-        <v>4.302119518662042</v>
+        <v>1</v>
       </c>
       <c r="AD25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
       </c>
       <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25">
         <v>0</v>
       </c>
     </row>
@@ -7527,10 +7517,10 @@
         <v>4.613135906537442</v>
       </c>
       <c r="D26">
-        <v>1.668581072577373</v>
+        <v>4.686749777386444</v>
       </c>
       <c r="E26">
-        <v>6.281716979114815</v>
+        <v>9.299885683923886</v>
       </c>
       <c r="F26">
         <v>60</v>
@@ -7556,42 +7546,42 @@
         <v>0.376</v>
       </c>
       <c r="U26">
-        <v>0.136</v>
+        <v>0.382</v>
       </c>
       <c r="V26">
+        <v>87.003</v>
+      </c>
+      <c r="W26">
         <v>82.95399999999999</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>4.923</v>
-      </c>
-      <c r="X26">
-        <v>87.003</v>
       </c>
       <c r="Y26">
         <v>4.955</v>
       </c>
+      <c r="Z26">
+        <v>4.049000000000007</v>
+      </c>
       <c r="AA26">
-        <v>4.049000000000007</v>
+        <v>0.2158557668560118</v>
       </c>
       <c r="AB26">
-        <v>0.2158557668560118</v>
+        <v>4.075318911232994</v>
       </c>
       <c r="AC26">
-        <v>4.075318911232994</v>
+        <v>4</v>
       </c>
       <c r="AD26">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AE26">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AF26">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AG26">
-        <v>20</v>
-      </c>
-      <c r="AH26">
         <v>12</v>
       </c>
     </row>
@@ -7605,10 +7595,10 @@
         <v>3.761501289026493</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>4.251164178722249</v>
       </c>
       <c r="E27">
-        <v>3.761501289026493</v>
+        <v>8.012665467748741</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -7634,42 +7624,42 @@
         <v>0.338</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="V27">
+        <v>86.264</v>
+      </c>
+      <c r="W27">
         <v>81.7</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>5.006</v>
-      </c>
-      <c r="X27">
-        <v>86.264</v>
       </c>
       <c r="Y27">
         <v>4.928</v>
       </c>
+      <c r="Z27">
+        <v>4.563999999999993</v>
+      </c>
       <c r="AA27">
-        <v>4.563999999999993</v>
+        <v>0.09684487291849429</v>
       </c>
       <c r="AB27">
-        <v>0.09684487291849429</v>
+        <v>4.492886935677181</v>
       </c>
       <c r="AC27">
-        <v>4.492886935677181</v>
+        <v>1</v>
       </c>
       <c r="AD27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE27">
         <v>0</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG27">
-        <v>1</v>
-      </c>
-      <c r="AH27">
         <v>0</v>
       </c>
     </row>
@@ -7683,10 +7673,10 @@
         <v>2.042659608760996</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>4.287340497509343</v>
       </c>
       <c r="E28">
-        <v>2.042659608760996</v>
+        <v>6.330000106270339</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -7712,42 +7702,42 @@
         <v>0.182</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="V28">
+        <v>85.858</v>
+      </c>
+      <c r="W28">
         <v>81.395</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>5.006</v>
-      </c>
-      <c r="X28">
-        <v>85.858</v>
       </c>
       <c r="Y28">
         <v>4.997</v>
       </c>
+      <c r="Z28">
+        <v>4.463000000000008</v>
+      </c>
       <c r="AA28">
-        <v>4.463000000000008</v>
+        <v>0.121667040107549</v>
       </c>
       <c r="AB28">
-        <v>0.121667040107549</v>
+        <v>4.454976228525776</v>
       </c>
       <c r="AC28">
-        <v>4.454976228525776</v>
+        <v>1</v>
       </c>
       <c r="AD28">
         <v>1</v>
       </c>
       <c r="AE28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
       </c>
       <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28">
         <v>0</v>
       </c>
     </row>
@@ -7761,10 +7751,10 @@
         <v>2.914479733711636</v>
       </c>
       <c r="D29">
-        <v>0.1522489413132944</v>
+        <v>4.154221112977034</v>
       </c>
       <c r="E29">
-        <v>3.066728675024931</v>
+        <v>7.068700846688669</v>
       </c>
       <c r="F29">
         <v>4</v>
@@ -7790,42 +7780,42 @@
         <v>0.268</v>
       </c>
       <c r="U29">
-        <v>0.014</v>
+        <v>0.382</v>
       </c>
       <c r="V29">
+        <v>87.581</v>
+      </c>
+      <c r="W29">
         <v>83.017</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>5.006</v>
-      </c>
-      <c r="X29">
-        <v>87.581</v>
       </c>
       <c r="Y29">
         <v>5.043</v>
       </c>
+      <c r="Z29">
+        <v>4.564000000000007</v>
+      </c>
       <c r="AA29">
-        <v>4.564000000000007</v>
+        <v>0.09684487291849088</v>
       </c>
       <c r="AB29">
-        <v>0.09684487291849088</v>
+        <v>4.597733120255699</v>
       </c>
       <c r="AC29">
-        <v>4.597733120255699</v>
+        <v>2</v>
       </c>
       <c r="AD29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29">
         <v>2</v>
       </c>
     </row>
@@ -7839,10 +7829,10 @@
         <v>1.005391591985344</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>4.627223953474714</v>
       </c>
       <c r="E30">
-        <v>1.005391591985344</v>
+        <v>5.632615545460058</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -7868,28 +7858,31 @@
         <v>0.083</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="V30">
+        <v>86.179</v>
+      </c>
+      <c r="W30">
         <v>82.009</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>5.033</v>
-      </c>
-      <c r="X30">
-        <v>86.179</v>
       </c>
       <c r="Y30">
         <v>4.982</v>
       </c>
+      <c r="Z30">
+        <v>4.170000000000002</v>
+      </c>
       <c r="AA30">
-        <v>4.170000000000002</v>
+        <v>0.2069544364508389</v>
       </c>
       <c r="AB30">
-        <v>0.2069544364508389</v>
+        <v>4.127744883767138</v>
       </c>
       <c r="AC30">
-        <v>4.127744883767138</v>
+        <v>0</v>
       </c>
       <c r="AD30">
         <v>0</v>
@@ -7901,9 +7894,6 @@
         <v>0</v>
       </c>
       <c r="AG30">
-        <v>0</v>
-      </c>
-      <c r="AH30">
         <v>0</v>
       </c>
     </row>
@@ -7917,10 +7907,10 @@
         <v>2.574903063666609</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>4.4306890554984</v>
       </c>
       <c r="E31">
-        <v>2.574903063666609</v>
+        <v>7.005592119165009</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -7946,42 +7936,42 @@
         <v>0.222</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="V31">
+        <v>86.303</v>
+      </c>
+      <c r="W31">
         <v>81.81100000000001</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>4.984</v>
-      </c>
-      <c r="X31">
-        <v>86.303</v>
       </c>
       <c r="Y31">
         <v>4.783</v>
       </c>
+      <c r="Z31">
+        <v>4.49199999999999</v>
+      </c>
       <c r="AA31">
-        <v>4.49199999999999</v>
+        <v>0.1095280498664316</v>
       </c>
       <c r="AB31">
-        <v>0.1095280498664316</v>
+        <v>4.310841894060986</v>
       </c>
       <c r="AC31">
-        <v>4.310841894060986</v>
+        <v>2</v>
       </c>
       <c r="AD31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE31">
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG31">
-        <v>1</v>
-      </c>
-      <c r="AH31">
         <v>1</v>
       </c>
     </row>
@@ -7995,10 +7985,10 @@
         <v>2.667026845765743</v>
       </c>
       <c r="D32">
-        <v>0.9765098293551737</v>
+        <v>4.011040374340606</v>
       </c>
       <c r="E32">
-        <v>3.643536675120917</v>
+        <v>6.67806722010635</v>
       </c>
       <c r="F32">
         <v>4</v>
@@ -8024,42 +8014,42 @@
         <v>0.254</v>
       </c>
       <c r="U32">
-        <v>0.093</v>
+        <v>0.382</v>
       </c>
       <c r="V32">
+        <v>87.788</v>
+      </c>
+      <c r="W32">
         <v>83.04600000000001</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>5.015</v>
-      </c>
-      <c r="X32">
-        <v>87.788</v>
       </c>
       <c r="Y32">
         <v>5.036</v>
       </c>
+      <c r="Z32">
+        <v>4.74199999999999</v>
+      </c>
       <c r="AA32">
-        <v>4.74199999999999</v>
+        <v>0.05757064529734501</v>
       </c>
       <c r="AB32">
-        <v>0.05757064529734501</v>
+        <v>4.761856829511456</v>
       </c>
       <c r="AC32">
-        <v>4.761856829511456</v>
+        <v>1</v>
       </c>
       <c r="AD32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
         <v>0</v>
       </c>
     </row>
@@ -8073,10 +8063,10 @@
         <v>1.458869531155936</v>
       </c>
       <c r="D33">
-        <v>0.07508887292714377</v>
+        <v>4.097707065452703</v>
       </c>
       <c r="E33">
-        <v>1.53395840408308</v>
+        <v>5.556576596608639</v>
       </c>
       <c r="F33">
         <v>16</v>
@@ -8102,42 +8092,42 @@
         <v>0.136</v>
       </c>
       <c r="U33">
-        <v>0.007</v>
+        <v>0.382</v>
       </c>
       <c r="V33">
+        <v>87.371</v>
+      </c>
+      <c r="W33">
         <v>82.708</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>5.023</v>
-      </c>
-      <c r="X33">
-        <v>87.371</v>
       </c>
       <c r="Y33">
         <v>5.021</v>
       </c>
+      <c r="Z33">
+        <v>4.662999999999997</v>
+      </c>
       <c r="AA33">
-        <v>4.662999999999997</v>
+        <v>0.07720351704911071</v>
       </c>
       <c r="AB33">
-        <v>0.07720351704911071</v>
+        <v>4.661143340633084</v>
       </c>
       <c r="AC33">
-        <v>4.661143340633084</v>
+        <v>2</v>
       </c>
       <c r="AD33">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE33">
         <v>8</v>
       </c>
       <c r="AF33">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33">
         <v>0</v>
       </c>
     </row>
@@ -8151,10 +8141,10 @@
         <v>2.545796541921629</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>4.018571400884555</v>
       </c>
       <c r="E34">
-        <v>2.545796541921629</v>
+        <v>6.564367942806183</v>
       </c>
       <c r="F34">
         <v>8</v>
@@ -8180,42 +8170,42 @@
         <v>0.242</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="V34">
+        <v>86.123</v>
+      </c>
+      <c r="W34">
         <v>81.31</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>5.048</v>
-      </c>
-      <c r="X34">
-        <v>86.123</v>
       </c>
       <c r="Y34">
         <v>4.985</v>
       </c>
+      <c r="Z34">
+        <v>4.813000000000002</v>
+      </c>
       <c r="AA34">
-        <v>4.813000000000002</v>
+        <v>0.0488260959900265</v>
       </c>
       <c r="AB34">
-        <v>0.0488260959900265</v>
+        <v>4.75293284469097</v>
       </c>
       <c r="AC34">
-        <v>4.75293284469097</v>
+        <v>1</v>
       </c>
       <c r="AD34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE34">
         <v>0</v>
       </c>
       <c r="AF34">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG34">
-        <v>8</v>
-      </c>
-      <c r="AH34">
         <v>0</v>
       </c>
     </row>
@@ -8229,10 +8219,10 @@
         <v>3.14682180564534</v>
       </c>
       <c r="D35">
-        <v>0.5534065934065943</v>
+        <v>4.145123895712138</v>
       </c>
       <c r="E35">
-        <v>3.700228399051934</v>
+        <v>7.291945701357478</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -8258,42 +8248,42 @@
         <v>0.29</v>
       </c>
       <c r="U35">
-        <v>0.051</v>
+        <v>0.382</v>
       </c>
       <c r="V35">
+        <v>85.809</v>
+      </c>
+      <c r="W35">
         <v>81.16800000000001</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>5.036</v>
-      </c>
-      <c r="X35">
-        <v>85.809</v>
       </c>
       <c r="Y35">
         <v>5</v>
       </c>
+      <c r="Z35">
+        <v>4.640999999999991</v>
+      </c>
       <c r="AA35">
-        <v>4.640999999999991</v>
+        <v>0.08511096746391063</v>
       </c>
       <c r="AB35">
-        <v>0.08511096746391063</v>
+        <v>4.607823669579023</v>
       </c>
       <c r="AC35">
-        <v>4.607823669579023</v>
+        <v>1</v>
       </c>
       <c r="AD35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG35">
-        <v>0</v>
-      </c>
-      <c r="AH35">
         <v>0</v>
       </c>
     </row>
@@ -8307,10 +8297,10 @@
         <v>2.474691194213972</v>
       </c>
       <c r="D36">
-        <v>0.9876570236997465</v>
+        <v>4.239157112958463</v>
       </c>
       <c r="E36">
-        <v>3.462348217913718</v>
+        <v>6.713848307172434</v>
       </c>
       <c r="F36">
         <v>8</v>
@@ -8336,31 +8326,34 @@
         <v>0.223</v>
       </c>
       <c r="U36">
-        <v>0.089</v>
+        <v>0.382</v>
       </c>
       <c r="V36">
+        <v>86.962</v>
+      </c>
+      <c r="W36">
         <v>82.486</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>4.988</v>
-      </c>
-      <c r="X36">
-        <v>86.962</v>
       </c>
       <c r="Y36">
         <v>5.021</v>
       </c>
+      <c r="Z36">
+        <v>4.475999999999999</v>
+      </c>
       <c r="AA36">
-        <v>4.475999999999999</v>
+        <v>0.1143878462913319</v>
       </c>
       <c r="AB36">
-        <v>0.1143878462913319</v>
+        <v>4.50561267040898</v>
       </c>
       <c r="AC36">
-        <v>4.50561267040898</v>
+        <v>4</v>
       </c>
       <c r="AD36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE36">
         <v>2</v>
@@ -8369,9 +8362,6 @@
         <v>2</v>
       </c>
       <c r="AG36">
-        <v>2</v>
-      </c>
-      <c r="AH36">
         <v>2</v>
       </c>
     </row>
@@ -8385,10 +8375,10 @@
         <v>5.592840066468773</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>4.594548183636712</v>
       </c>
       <c r="E37">
-        <v>5.592840066468773</v>
+        <v>10.18738825010549</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -8414,31 +8404,34 @@
         <v>0.465</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="V37">
+        <v>86.812</v>
+      </c>
+      <c r="W37">
         <v>82.682</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>5.029</v>
-      </c>
-      <c r="X37">
-        <v>86.812</v>
       </c>
       <c r="Y37">
         <v>5.062</v>
       </c>
+      <c r="Z37">
+        <v>4.129999999999995</v>
+      </c>
       <c r="AA37">
-        <v>4.129999999999995</v>
+        <v>0.2176755447941902</v>
       </c>
       <c r="AB37">
-        <v>0.2176755447941902</v>
+        <v>4.157100815271421</v>
       </c>
       <c r="AC37">
-        <v>4.157100815271421</v>
+        <v>1</v>
       </c>
       <c r="AD37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE37">
         <v>0</v>
@@ -8447,9 +8440,6 @@
         <v>0</v>
       </c>
       <c r="AG37">
-        <v>0</v>
-      </c>
-      <c r="AH37">
         <v>1</v>
       </c>
     </row>
@@ -8463,10 +8453,10 @@
         <v>-0.07400141787493579</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>4.711423604704246</v>
       </c>
       <c r="E38">
-        <v>-0.07400141787493579</v>
+        <v>4.63742218682931</v>
       </c>
       <c r="F38">
         <v>4</v>
@@ -8492,42 +8482,42 @@
         <v>-0.006</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="V38">
+        <v>87.08199999999999</v>
+      </c>
+      <c r="W38">
         <v>83.012</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>5.08</v>
-      </c>
-      <c r="X38">
-        <v>87.08199999999999</v>
       </c>
       <c r="Y38">
         <v>5.06</v>
       </c>
+      <c r="Z38">
+        <v>4.069999999999993</v>
+      </c>
       <c r="AA38">
-        <v>4.069999999999993</v>
+        <v>0.2481572481572503</v>
       </c>
       <c r="AB38">
-        <v>0.2481572481572503</v>
+        <v>4.053976377952749</v>
       </c>
       <c r="AC38">
-        <v>4.053976377952749</v>
+        <v>3</v>
       </c>
       <c r="AD38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG38">
-        <v>1</v>
-      </c>
-      <c r="AH38">
         <v>1</v>
       </c>
     </row>
@@ -8541,10 +8531,10 @@
         <v>1.913838584435976</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>4.598027290909074</v>
       </c>
       <c r="E39">
-        <v>1.913838584435976</v>
+        <v>6.511865875345049</v>
       </c>
       <c r="F39">
         <v>8</v>
@@ -8570,42 +8560,42 @@
         <v>0.159</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="V39">
+        <v>86.971</v>
+      </c>
+      <c r="W39">
         <v>82.717</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>5.06</v>
-      </c>
-      <c r="X39">
-        <v>86.971</v>
       </c>
       <c r="Y39">
         <v>4.941</v>
       </c>
+      <c r="Z39">
+        <v>4.254000000000005</v>
+      </c>
       <c r="AA39">
-        <v>4.254000000000005</v>
+        <v>0.189468735307944</v>
       </c>
       <c r="AB39">
-        <v>0.189468735307944</v>
+        <v>4.153955335968385</v>
       </c>
       <c r="AC39">
-        <v>4.153955335968385</v>
+        <v>2</v>
       </c>
       <c r="AD39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG39">
-        <v>0</v>
-      </c>
-      <c r="AH39">
         <v>4</v>
       </c>
     </row>
@@ -8619,10 +8609,10 @@
         <v>2.200010063202727</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>4.802307680819666</v>
       </c>
       <c r="E40">
-        <v>2.200010063202727</v>
+        <v>7.002317744022394</v>
       </c>
       <c r="F40">
         <v>16</v>
@@ -8648,28 +8638,31 @@
         <v>0.175</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="V40">
+        <v>86.986</v>
+      </c>
+      <c r="W40">
         <v>82.98</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>5.017</v>
-      </c>
-      <c r="X40">
-        <v>86.986</v>
       </c>
       <c r="Y40">
         <v>4.981</v>
       </c>
+      <c r="Z40">
+        <v>4.006</v>
+      </c>
       <c r="AA40">
-        <v>4.006</v>
+        <v>0.2523714428357464</v>
       </c>
       <c r="AB40">
-        <v>0.2523714428357464</v>
+        <v>3.97725453458242</v>
       </c>
       <c r="AC40">
-        <v>3.97725453458242</v>
+        <v>4</v>
       </c>
       <c r="AD40">
         <v>4</v>
@@ -8681,9 +8674,6 @@
         <v>4</v>
       </c>
       <c r="AG40">
-        <v>4</v>
-      </c>
-      <c r="AH40">
         <v>4</v>
       </c>
     </row>
@@ -8697,10 +8687,10 @@
         <v>3.74898627452284</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>4.237019990732914</v>
       </c>
       <c r="E41">
-        <v>3.74898627452284</v>
+        <v>7.986006265255754</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -8726,42 +8716,42 @@
         <v>0.338</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="V41">
+        <v>86.545</v>
+      </c>
+      <c r="W41">
         <v>81.97499999999999</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>5.003</v>
-      </c>
-      <c r="X41">
-        <v>86.545</v>
       </c>
       <c r="Y41">
         <v>4.935</v>
       </c>
+      <c r="Z41">
+        <v>4.570000000000007</v>
+      </c>
       <c r="AA41">
-        <v>4.570000000000007</v>
+        <v>0.09474835886214268</v>
       </c>
       <c r="AB41">
-        <v>0.09474835886214268</v>
+        <v>4.507885268838703</v>
       </c>
       <c r="AC41">
-        <v>4.507885268838703</v>
+        <v>1</v>
       </c>
       <c r="AD41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG41">
-        <v>0</v>
-      </c>
-      <c r="AH41">
         <v>0</v>
       </c>
     </row>
@@ -8775,10 +8765,10 @@
         <v>2.268029418539413</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>4.267917427990423</v>
       </c>
       <c r="E42">
-        <v>2.268029418539413</v>
+        <v>6.535946846529836</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -8804,42 +8794,42 @@
         <v>0.203</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="V42">
+        <v>85.542</v>
+      </c>
+      <c r="W42">
         <v>81.09399999999999</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>5.06</v>
-      </c>
-      <c r="X42">
-        <v>85.542</v>
       </c>
       <c r="Y42">
         <v>5.091</v>
       </c>
+      <c r="Z42">
+        <v>4.448000000000008</v>
+      </c>
       <c r="AA42">
-        <v>4.448000000000008</v>
+        <v>0.137589928057552</v>
       </c>
       <c r="AB42">
-        <v>0.137589928057552</v>
+        <v>4.475250592885383</v>
       </c>
       <c r="AC42">
-        <v>4.475250592885383</v>
+        <v>2</v>
       </c>
       <c r="AD42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG42">
-        <v>0</v>
-      </c>
-      <c r="AH42">
         <v>1</v>
       </c>
     </row>
@@ -8853,10 +8843,10 @@
         <v>4.473755236787204</v>
       </c>
       <c r="D43">
-        <v>0.05750328067849877</v>
+        <v>4.393250643837306</v>
       </c>
       <c r="E43">
-        <v>4.531258517465703</v>
+        <v>8.867005880624511</v>
       </c>
       <c r="F43">
         <v>8</v>
@@ -8882,44 +8872,44 @@
         <v>0.389</v>
       </c>
       <c r="U43">
-        <v>0.005</v>
+        <v>0.382</v>
       </c>
       <c r="V43">
+        <v>86.316</v>
+      </c>
+      <c r="W43">
         <v>81.937</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>5.017</v>
-      </c>
-      <c r="X43">
-        <v>86.316</v>
       </c>
       <c r="Y43">
         <v>4.981</v>
       </c>
+      <c r="Z43">
+        <v>4.379000000000005</v>
+      </c>
       <c r="AA43">
-        <v>4.379000000000005</v>
+        <v>0.1456953642384094</v>
       </c>
       <c r="AB43">
-        <v>0.1456953642384094</v>
+        <v>4.347578034682085</v>
       </c>
       <c r="AC43">
-        <v>4.347578034682085</v>
+        <v>3</v>
       </c>
       <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>2</v>
+      </c>
+      <c r="AF43">
         <v>3</v>
-      </c>
-      <c r="AE43">
-        <v>0</v>
-      </c>
-      <c r="AF43">
-        <v>2</v>
       </c>
       <c r="AG43">
         <v>3</v>
       </c>
-      <c r="AH43">
-        <v>3</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8927,15 +8917,6 @@
           <t>B2A22</t>
         </is>
       </c>
-      <c r="C44">
-        <v>6.195596518177168</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>6.195596518177168</v>
-      </c>
       <c r="F44">
         <v>16</v>
       </c>
@@ -8960,47 +8941,30 @@
         <v>0.484</v>
       </c>
       <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="V44">
+        <v>0.382</v>
+      </c>
+      <c r="W44">
         <v>81.989</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>5.088</v>
-      </c>
-      <c r="X44">
-        <v>86.021</v>
       </c>
       <c r="Y44">
         <v>4.929</v>
       </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>two glasses</t>
-        </is>
-      </c>
-      <c r="AA44">
-        <v>4.031999999999996</v>
-      </c>
-      <c r="AB44">
-        <v>0.261904761904763</v>
-      </c>
       <c r="AC44">
-        <v>3.905999999999997</v>
+        <v>3</v>
       </c>
       <c r="AD44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AF44">
         <v>5</v>
       </c>
-      <c r="AF44">
-        <v>0</v>
-      </c>
       <c r="AG44">
-        <v>5</v>
-      </c>
-      <c r="AH44">
         <v>6</v>
       </c>
     </row>
@@ -9010,15 +8974,6 @@
           <t>B2A22</t>
         </is>
       </c>
-      <c r="C45">
-        <v>6.413210445468515</v>
-      </c>
-      <c r="D45">
-        <v>0.9600614439324124</v>
-      </c>
-      <c r="E45">
-        <v>7.373271889400927</v>
-      </c>
       <c r="F45">
         <v>16</v>
       </c>
@@ -9043,47 +8998,30 @@
         <v>0.501</v>
       </c>
       <c r="U45">
-        <v>0.075</v>
-      </c>
-      <c r="V45">
+        <v>0.382</v>
+      </c>
+      <c r="W45">
         <v>81.989</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>5.088</v>
-      </c>
-      <c r="X45">
-        <v>86.021</v>
       </c>
       <c r="Y45">
         <v>4.929</v>
       </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>two glasses</t>
-        </is>
-      </c>
-      <c r="AA45">
-        <v>4.031999999999996</v>
-      </c>
-      <c r="AB45">
-        <v>0.261904761904763</v>
-      </c>
       <c r="AC45">
-        <v>3.905999999999997</v>
+        <v>3</v>
       </c>
       <c r="AD45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AF45">
         <v>5</v>
       </c>
-      <c r="AF45">
-        <v>0</v>
-      </c>
       <c r="AG45">
-        <v>5</v>
-      </c>
-      <c r="AH45">
         <v>6</v>
       </c>
     </row>
@@ -9097,10 +9035,10 @@
         <v>2.219955009151584</v>
       </c>
       <c r="D46">
-        <v>0.5667970236131702</v>
+        <v>4.510759646254813</v>
       </c>
       <c r="E46">
-        <v>2.786752032764754</v>
+        <v>6.730714655406397</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -9126,42 +9064,42 @@
         <v>0.188</v>
       </c>
       <c r="U46">
-        <v>0.048</v>
+        <v>0.382</v>
       </c>
       <c r="V46">
+        <v>87.226</v>
+      </c>
+      <c r="W46">
         <v>82.98999999999999</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>5.043</v>
-      </c>
-      <c r="X46">
-        <v>87.226</v>
       </c>
       <c r="Y46">
         <v>5.041</v>
       </c>
+      <c r="Z46">
+        <v>4.236000000000004</v>
+      </c>
       <c r="AA46">
-        <v>4.236000000000004</v>
+        <v>0.1905099150141632</v>
       </c>
       <c r="AB46">
-        <v>0.1905099150141632</v>
+        <v>4.234320047590725</v>
       </c>
       <c r="AC46">
-        <v>4.234320047590725</v>
+        <v>1</v>
       </c>
       <c r="AD46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE46">
         <v>0</v>
       </c>
       <c r="AF46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG46">
-        <v>1</v>
-      </c>
-      <c r="AH46">
         <v>0</v>
       </c>
     </row>
@@ -9175,10 +9113,10 @@
         <v>4.494564319351642</v>
       </c>
       <c r="D47">
-        <v>1.639456463882609</v>
+        <v>4.260356253082699</v>
       </c>
       <c r="E47">
-        <v>6.134020783234251</v>
+        <v>8.75492057243434</v>
       </c>
       <c r="F47">
         <v>2</v>
@@ -9204,42 +9142,42 @@
         <v>0.403</v>
       </c>
       <c r="U47">
-        <v>0.147</v>
+        <v>0.382</v>
       </c>
       <c r="V47">
+        <v>87.05500000000001</v>
+      </c>
+      <c r="W47">
         <v>82.553</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>5.027</v>
-      </c>
-      <c r="X47">
-        <v>87.05500000000001</v>
       </c>
       <c r="Y47">
         <v>5.006</v>
       </c>
+      <c r="Z47">
+        <v>4.50200000000001</v>
+      </c>
       <c r="AA47">
-        <v>4.50200000000001</v>
+        <v>0.1166148378498422</v>
       </c>
       <c r="AB47">
-        <v>0.1166148378498422</v>
+        <v>4.483193156952466</v>
       </c>
       <c r="AC47">
-        <v>4.483193156952466</v>
+        <v>2</v>
       </c>
       <c r="AD47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG47">
-        <v>1</v>
-      </c>
-      <c r="AH47">
         <v>0</v>
       </c>
     </row>
@@ -9253,10 +9191,10 @@
         <v>3.929909103867187</v>
       </c>
       <c r="D48">
-        <v>2.249629946383337</v>
+        <v>5.304682959990338</v>
       </c>
       <c r="E48">
-        <v>6.179539050250524</v>
+        <v>9.234592063857527</v>
       </c>
       <c r="F48">
         <v>4</v>
@@ -9282,42 +9220,42 @@
         <v>0.283</v>
       </c>
       <c r="U48">
-        <v>0.162</v>
+        <v>0.382</v>
       </c>
       <c r="V48">
+        <v>87.557</v>
+      </c>
+      <c r="W48">
         <v>83.94499999999999</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>5.066</v>
-      </c>
-      <c r="X48">
-        <v>87.557</v>
       </c>
       <c r="Y48">
         <v>5.05</v>
       </c>
+      <c r="Z48">
+        <v>3.612000000000009</v>
+      </c>
       <c r="AA48">
-        <v>3.612000000000009</v>
+        <v>0.4025470653377595</v>
       </c>
       <c r="AB48">
-        <v>0.4025470653377595</v>
+        <v>3.600592183182007</v>
       </c>
       <c r="AC48">
-        <v>3.600592183182007</v>
+        <v>3</v>
       </c>
       <c r="AD48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE48">
         <v>1</v>
       </c>
       <c r="AF48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG48">
-        <v>0</v>
-      </c>
-      <c r="AH48">
         <v>2</v>
       </c>
     </row>
@@ -9331,10 +9269,10 @@
         <v>3.737468883703922</v>
       </c>
       <c r="D49">
-        <v>1.043281191463365</v>
+        <v>4.379488078450608</v>
       </c>
       <c r="E49">
-        <v>4.780750075167287</v>
+        <v>8.11695696215453</v>
       </c>
       <c r="F49">
         <v>8</v>
@@ -9360,42 +9298,42 @@
         <v>0.326</v>
       </c>
       <c r="U49">
-        <v>0.091</v>
+        <v>0.382</v>
       </c>
       <c r="V49">
+        <v>86.039</v>
+      </c>
+      <c r="W49">
         <v>81.65300000000001</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>4.96</v>
-      </c>
-      <c r="X49">
-        <v>86.039</v>
       </c>
       <c r="Y49">
         <v>4.932</v>
       </c>
+      <c r="Z49">
+        <v>4.385999999999996</v>
+      </c>
       <c r="AA49">
-        <v>4.385999999999996</v>
+        <v>0.1308709530323768</v>
       </c>
       <c r="AB49">
-        <v>0.1308709530323768</v>
+        <v>4.361240322580641</v>
       </c>
       <c r="AC49">
-        <v>4.361240322580641</v>
+        <v>1</v>
       </c>
       <c r="AD49">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AE49">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
       </c>
       <c r="AG49">
-        <v>0</v>
-      </c>
-      <c r="AH49">
         <v>0</v>
       </c>
     </row>
@@ -9409,10 +9347,10 @@
         <v>1.133409164770882</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>4.655508612284697</v>
       </c>
       <c r="E50">
-        <v>1.133409164770882</v>
+        <v>5.788917777055579</v>
       </c>
       <c r="F50">
         <v>8</v>
@@ -9438,42 +9376,42 @@
         <v>0.093</v>
       </c>
       <c r="U50">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="V50">
+        <v>86.05</v>
+      </c>
+      <c r="W50">
         <v>81.887</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>5.037</v>
-      </c>
-      <c r="X50">
-        <v>86.05</v>
       </c>
       <c r="Y50">
         <v>4.964</v>
       </c>
+      <c r="Z50">
+        <v>4.162999999999997</v>
+      </c>
       <c r="AA50">
-        <v>4.162999999999997</v>
+        <v>0.2099447513812164</v>
       </c>
       <c r="AB50">
-        <v>0.2099447513812164</v>
+        <v>4.102666666666663</v>
       </c>
       <c r="AC50">
-        <v>4.102666666666663</v>
+        <v>3</v>
       </c>
       <c r="AD50">
         <v>3</v>
       </c>
       <c r="AE50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG50">
-        <v>2</v>
-      </c>
-      <c r="AH50">
         <v>3</v>
       </c>
     </row>
@@ -9487,10 +9425,10 @@
         <v>3.032003574772032</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>4.577965871790183</v>
       </c>
       <c r="E51">
-        <v>3.032003574772032</v>
+        <v>7.609969446562214</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -9516,42 +9454,42 @@
         <v>0.253</v>
       </c>
       <c r="U51">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="V51">
+        <v>86.782</v>
+      </c>
+      <c r="W51">
         <v>82.60899999999999</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>4.96</v>
-      </c>
-      <c r="X51">
-        <v>86.782</v>
       </c>
       <c r="Y51">
         <v>4.959</v>
       </c>
+      <c r="Z51">
+        <v>4.173000000000002</v>
+      </c>
       <c r="AA51">
-        <v>4.173000000000002</v>
+        <v>0.1885933381260479</v>
       </c>
       <c r="AB51">
-        <v>0.1885933381260479</v>
+        <v>4.17215866935484</v>
       </c>
       <c r="AC51">
-        <v>4.17215866935484</v>
+        <v>1</v>
       </c>
       <c r="AD51">
         <v>1</v>
       </c>
       <c r="AE51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
       </c>
       <c r="AG51">
-        <v>0</v>
-      </c>
-      <c r="AH51">
         <v>0</v>
       </c>
     </row>
@@ -9565,10 +9503,10 @@
         <v>1.683062667407884</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>6.008691018222541</v>
       </c>
       <c r="E52">
-        <v>1.683062667407884</v>
+        <v>7.691753685630425</v>
       </c>
       <c r="F52">
         <v>8</v>
@@ -9594,31 +9532,34 @@
         <v>0.107</v>
       </c>
       <c r="U52">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="V52">
+        <v>86.785</v>
+      </c>
+      <c r="W52">
         <v>83.551</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>5.032</v>
-      </c>
-      <c r="X52">
-        <v>86.785</v>
       </c>
       <c r="Y52">
         <v>4.946</v>
       </c>
+      <c r="Z52">
+        <v>3.233999999999995</v>
+      </c>
       <c r="AA52">
-        <v>3.233999999999995</v>
+        <v>0.55596784168213</v>
       </c>
       <c r="AB52">
-        <v>0.55596784168213</v>
+        <v>3.178728934817165</v>
       </c>
       <c r="AC52">
-        <v>3.178728934817165</v>
+        <v>4</v>
       </c>
       <c r="AD52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE52">
         <v>2</v>
@@ -9627,9 +9568,6 @@
         <v>2</v>
       </c>
       <c r="AG52">
-        <v>2</v>
-      </c>
-      <c r="AH52">
         <v>2</v>
       </c>
     </row>
@@ -9643,10 +9581,10 @@
         <v>2.373659828301991</v>
       </c>
       <c r="D53">
-        <v>0.2463231897294519</v>
+        <v>4.277066294393212</v>
       </c>
       <c r="E53">
-        <v>2.619983018031443</v>
+        <v>6.650726122695203</v>
       </c>
       <c r="F53">
         <v>2</v>
@@ -9672,42 +9610,42 @@
         <v>0.212</v>
       </c>
       <c r="U53">
-        <v>0.022</v>
+        <v>0.382</v>
       </c>
       <c r="V53">
+        <v>86.494</v>
+      </c>
+      <c r="W53">
         <v>82.03100000000001</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>5</v>
-      </c>
-      <c r="X53">
-        <v>86.494</v>
       </c>
       <c r="Y53">
         <v>5.003</v>
       </c>
+      <c r="Z53">
+        <v>4.462999999999994</v>
+      </c>
       <c r="AA53">
-        <v>4.462999999999994</v>
+        <v>0.1203226529240437</v>
       </c>
       <c r="AB53">
-        <v>0.1203226529240437</v>
+        <v>4.465677799999994</v>
       </c>
       <c r="AC53">
-        <v>4.465677799999994</v>
+        <v>1</v>
       </c>
       <c r="AD53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
       </c>
       <c r="AG53">
-        <v>0</v>
-      </c>
-      <c r="AH53">
         <v>0</v>
       </c>
     </row>
@@ -9721,10 +9659,10 @@
         <v>2.368253393986643</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>4.413038031721452</v>
       </c>
       <c r="E54">
-        <v>2.368253393986643</v>
+        <v>6.781291425708096</v>
       </c>
       <c r="F54">
         <v>16</v>
@@ -9750,42 +9688,42 @@
         <v>0.205</v>
       </c>
       <c r="U54">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="V54">
+        <v>86.864</v>
+      </c>
+      <c r="W54">
         <v>82.604</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>4.943</v>
-      </c>
-      <c r="X54">
-        <v>86.864</v>
       </c>
       <c r="Y54">
         <v>5.022</v>
       </c>
+      <c r="Z54">
+        <v>4.260000000000005</v>
+      </c>
       <c r="AA54">
-        <v>4.260000000000005</v>
+        <v>0.1603286384976511</v>
       </c>
       <c r="AB54">
-        <v>0.1603286384976511</v>
+        <v>4.328084159417364</v>
       </c>
       <c r="AC54">
-        <v>4.328084159417364</v>
+        <v>1</v>
       </c>
       <c r="AD54">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AE54">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
       </c>
       <c r="AG54">
-        <v>0</v>
-      </c>
-      <c r="AH54">
         <v>0</v>
       </c>
     </row>
@@ -9799,10 +9737,10 @@
         <v>1.340639535511164</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>4.613732455542925</v>
       </c>
       <c r="E55">
-        <v>1.340639535511164</v>
+        <v>5.954371991054089</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -9828,28 +9766,31 @@
         <v>0.111</v>
       </c>
       <c r="U55">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="V55">
+        <v>87.02800000000001</v>
+      </c>
+      <c r="W55">
         <v>82.879</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>4.969</v>
-      </c>
-      <c r="X55">
-        <v>87.02800000000001</v>
       </c>
       <c r="Y55">
         <v>4.958</v>
       </c>
+      <c r="Z55">
+        <v>4.149000000000001</v>
+      </c>
       <c r="AA55">
-        <v>4.149000000000001</v>
+        <v>0.19763798505664</v>
       </c>
       <c r="AB55">
-        <v>0.19763798505664</v>
+        <v>4.139815254578387</v>
       </c>
       <c r="AC55">
-        <v>4.139815254578387</v>
+        <v>0</v>
       </c>
       <c r="AD55">
         <v>0</v>
@@ -9861,9 +9802,6 @@
         <v>0</v>
       </c>
       <c r="AG55">
-        <v>0</v>
-      </c>
-      <c r="AH55">
         <v>0</v>
       </c>
     </row>
@@ -9877,10 +9815,10 @@
         <v>13.90248837605679</v>
       </c>
       <c r="D56">
-        <v>0.7005597965345731</v>
+        <v>4.614031763382878</v>
       </c>
       <c r="E56">
-        <v>14.60304817259136</v>
+        <v>18.51652013943966</v>
       </c>
       <c r="F56">
         <v>4</v>
@@ -9906,28 +9844,31 @@
         <v>1.151</v>
       </c>
       <c r="U56">
-        <v>0.058</v>
+        <v>0.382</v>
       </c>
       <c r="V56">
+        <v>86.65600000000001</v>
+      </c>
+      <c r="W56">
         <v>82.505</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>5.074</v>
-      </c>
-      <c r="X56">
-        <v>86.65600000000001</v>
       </c>
       <c r="Y56">
         <v>5.06</v>
       </c>
+      <c r="Z56">
+        <v>4.15100000000001</v>
+      </c>
       <c r="AA56">
-        <v>4.15100000000001</v>
+        <v>0.2223560587810135</v>
       </c>
       <c r="AB56">
-        <v>0.2223560587810135</v>
+        <v>4.139546708711086</v>
       </c>
       <c r="AC56">
-        <v>4.139546708711086</v>
+        <v>2</v>
       </c>
       <c r="AD56">
         <v>2</v>
@@ -9936,12 +9877,9 @@
         <v>2</v>
       </c>
       <c r="AF56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG56">
-        <v>0</v>
-      </c>
-      <c r="AH56">
         <v>0</v>
       </c>
     </row>
@@ -9955,10 +9893,10 @@
         <v>5.700865422499172</v>
       </c>
       <c r="D57">
-        <v>0.3103293677570114</v>
+        <v>4.390585869747347</v>
       </c>
       <c r="E57">
-        <v>6.011194790256184</v>
+        <v>10.09145129224652</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -9984,31 +9922,34 @@
         <v>0.496</v>
       </c>
       <c r="U57">
-        <v>0.027</v>
+        <v>0.382</v>
       </c>
       <c r="V57">
+        <v>85.848</v>
+      </c>
+      <c r="W57">
         <v>81.458</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>5.076</v>
-      </c>
-      <c r="X57">
-        <v>85.848</v>
       </c>
       <c r="Y57">
         <v>5.03</v>
       </c>
+      <c r="Z57">
+        <v>4.390000000000001</v>
+      </c>
       <c r="AA57">
-        <v>4.390000000000001</v>
+        <v>0.1562642369020499</v>
       </c>
       <c r="AB57">
-        <v>0.1562642369020499</v>
+        <v>4.350216706067771</v>
       </c>
       <c r="AC57">
-        <v>4.350216706067771</v>
+        <v>1</v>
       </c>
       <c r="AD57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE57">
         <v>0</v>
@@ -10017,9 +9958,6 @@
         <v>0</v>
       </c>
       <c r="AG57">
-        <v>0</v>
-      </c>
-      <c r="AH57">
         <v>1</v>
       </c>
     </row>
@@ -10033,10 +9971,10 @@
         <v>1.495301878297487</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>4.682010799259347</v>
       </c>
       <c r="E58">
-        <v>1.495301878297487</v>
+        <v>6.177312677556834</v>
       </c>
       <c r="F58">
         <v>4</v>
@@ -10062,42 +10000,42 @@
         <v>0.122</v>
       </c>
       <c r="U58">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="V58">
+        <v>87.19499999999999</v>
+      </c>
+      <c r="W58">
         <v>83.099</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>4.948</v>
-      </c>
-      <c r="X58">
-        <v>87.19499999999999</v>
       </c>
       <c r="Y58">
         <v>4.928</v>
       </c>
+      <c r="Z58">
+        <v>4.095999999999989</v>
+      </c>
       <c r="AA58">
-        <v>4.095999999999989</v>
+        <v>0.2080078125000032</v>
       </c>
       <c r="AB58">
-        <v>0.2080078125000032</v>
+        <v>4.079443815683094</v>
       </c>
       <c r="AC58">
-        <v>4.079443815683094</v>
+        <v>1</v>
       </c>
       <c r="AD58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
       </c>
       <c r="AG58">
-        <v>0</v>
-      </c>
-      <c r="AH58">
         <v>0</v>
       </c>
     </row>
@@ -10111,10 +10049,10 @@
         <v>2.48673920921487</v>
       </c>
       <c r="D59">
-        <v>1.095642522871898</v>
+        <v>4.702645435247923</v>
       </c>
       <c r="E59">
-        <v>3.582381732086768</v>
+        <v>7.189384644462793</v>
       </c>
       <c r="F59">
         <v>60</v>
@@ -10140,42 +10078,42 @@
         <v>0.202</v>
       </c>
       <c r="U59">
-        <v>0.089</v>
+        <v>0.382</v>
       </c>
       <c r="V59">
+        <v>86.744</v>
+      </c>
+      <c r="W59">
         <v>82.721</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>5.01</v>
-      </c>
-      <c r="X59">
-        <v>86.744</v>
       </c>
       <c r="Y59">
         <v>5.058</v>
       </c>
+      <c r="Z59">
+        <v>4.022999999999996</v>
+      </c>
       <c r="AA59">
-        <v>4.022999999999996</v>
+        <v>0.2453392990305753</v>
       </c>
       <c r="AB59">
-        <v>0.2453392990305753</v>
+        <v>4.061543712574847</v>
       </c>
       <c r="AC59">
-        <v>4.061543712574847</v>
+        <v>4</v>
       </c>
       <c r="AD59">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AE59">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AF59">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AG59">
-        <v>20</v>
-      </c>
-      <c r="AH59">
         <v>12</v>
       </c>
     </row>
@@ -10189,10 +10127,10 @@
         <v>14.00237105375946</v>
       </c>
       <c r="D60">
-        <v>0.8551066292372188</v>
+        <v>4.083134154607721</v>
       </c>
       <c r="E60">
-        <v>14.85747768299668</v>
+        <v>18.08550520836718</v>
       </c>
       <c r="F60">
         <v>16</v>
@@ -10218,42 +10156,42 @@
         <v>1.31</v>
       </c>
       <c r="U60">
-        <v>0.08</v>
+        <v>0.382</v>
       </c>
       <c r="V60">
+        <v>87.822</v>
+      </c>
+      <c r="W60">
         <v>83.041</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>5.095</v>
-      </c>
-      <c r="X60">
-        <v>87.822</v>
       </c>
       <c r="Y60">
         <v>4.985</v>
       </c>
+      <c r="Z60">
+        <v>4.781000000000006</v>
+      </c>
       <c r="AA60">
-        <v>4.781000000000006</v>
+        <v>0.06567663668688421</v>
       </c>
       <c r="AB60">
-        <v>0.06567663668688421</v>
+        <v>4.677779195289506</v>
       </c>
       <c r="AC60">
-        <v>4.677779195289506</v>
+        <v>2</v>
       </c>
       <c r="AD60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE60">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AF60">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG60">
-        <v>0</v>
-      </c>
-      <c r="AH60">
         <v>8</v>
       </c>
     </row>
@@ -10267,10 +10205,10 @@
         <v>1.704486925521368</v>
       </c>
       <c r="D61">
-        <v>1.553456438449855</v>
+        <v>4.120974718665587</v>
       </c>
       <c r="E61">
-        <v>3.257943363971223</v>
+        <v>5.825461644186955</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -10296,42 +10234,42 @@
         <v>0.158</v>
       </c>
       <c r="U61">
-        <v>0.144</v>
+        <v>0.382</v>
       </c>
       <c r="V61">
+        <v>87.233</v>
+      </c>
+      <c r="W61">
         <v>82.59999999999999</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>5.075</v>
-      </c>
-      <c r="X61">
-        <v>87.233</v>
       </c>
       <c r="Y61">
         <v>5.077</v>
       </c>
+      <c r="Z61">
+        <v>4.63300000000001</v>
+      </c>
       <c r="AA61">
-        <v>4.63300000000001</v>
+        <v>0.09540254694582116</v>
       </c>
       <c r="AB61">
-        <v>0.09540254694582116</v>
+        <v>4.634825812807891</v>
       </c>
       <c r="AC61">
-        <v>4.634825812807891</v>
+        <v>1</v>
       </c>
       <c r="AD61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG61">
-        <v>0</v>
-      </c>
-      <c r="AH61">
         <v>0</v>
       </c>
     </row>
@@ -10345,10 +10283,10 @@
         <v>1.968679275313366</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>4.613714620673042</v>
       </c>
       <c r="E62">
-        <v>1.968679275313366</v>
+        <v>6.582393895986407</v>
       </c>
       <c r="F62">
         <v>2</v>
@@ -10374,42 +10312,42 @@
         <v>0.163</v>
       </c>
       <c r="U62">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="V62">
+        <v>85.53700000000001</v>
+      </c>
+      <c r="W62">
         <v>81.45699999999999</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>4.978</v>
-      </c>
-      <c r="X62">
-        <v>85.53700000000001</v>
       </c>
       <c r="Y62">
         <v>5.051</v>
       </c>
+      <c r="Z62">
+        <v>4.080000000000013</v>
+      </c>
       <c r="AA62">
-        <v>4.080000000000013</v>
+        <v>0.2200980392156825</v>
       </c>
       <c r="AB62">
-        <v>0.2200980392156825</v>
+        <v>4.139831257533159</v>
       </c>
       <c r="AC62">
-        <v>4.139831257533159</v>
+        <v>2</v>
       </c>
       <c r="AD62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE62">
         <v>1</v>
       </c>
       <c r="AF62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG62">
-        <v>0</v>
-      </c>
-      <c r="AH62">
         <v>0</v>
       </c>
     </row>
@@ -10423,10 +10361,10 @@
         <v>6.256943710606284</v>
       </c>
       <c r="D63">
-        <v>0.406866286981428</v>
+        <v>4.200619503429879</v>
       </c>
       <c r="E63">
-        <v>6.663809997587712</v>
+        <v>10.45756321403616</v>
       </c>
       <c r="F63">
         <v>8</v>
@@ -10452,42 +10390,42 @@
         <v>0.569</v>
       </c>
       <c r="U63">
-        <v>0.037</v>
+        <v>0.382</v>
       </c>
       <c r="V63">
+        <v>87.70099999999999</v>
+      </c>
+      <c r="W63">
         <v>83.208</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>4.997</v>
-      </c>
-      <c r="X63">
-        <v>87.70099999999999</v>
       </c>
       <c r="Y63">
         <v>5.057</v>
       </c>
+      <c r="Z63">
+        <v>4.492999999999995</v>
+      </c>
       <c r="AA63">
-        <v>4.492999999999995</v>
+        <v>0.1121744936568007</v>
       </c>
       <c r="AB63">
-        <v>0.1121744936568007</v>
+        <v>4.546948369021408</v>
       </c>
       <c r="AC63">
-        <v>4.546948369021408</v>
+        <v>2</v>
       </c>
       <c r="AD63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE63">
         <v>0</v>
       </c>
       <c r="AF63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG63">
-        <v>4</v>
-      </c>
-      <c r="AH63">
         <v>4</v>
       </c>
     </row>
@@ -10501,10 +10439,10 @@
         <v>3.396953243107491</v>
       </c>
       <c r="D64">
-        <v>0.9948220211957653</v>
+        <v>4.634414781668077</v>
       </c>
       <c r="E64">
-        <v>4.391775264303257</v>
+        <v>8.031368024775569</v>
       </c>
       <c r="F64">
         <v>2</v>
@@ -10530,31 +10468,34 @@
         <v>0.28</v>
       </c>
       <c r="U64">
-        <v>0.082</v>
+        <v>0.382</v>
       </c>
       <c r="V64">
+        <v>87.041</v>
+      </c>
+      <c r="W64">
         <v>82.858</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>5.088</v>
-      </c>
-      <c r="X64">
-        <v>87.041</v>
       </c>
       <c r="Y64">
         <v>5.013</v>
       </c>
+      <c r="Z64">
+        <v>4.182999999999993</v>
+      </c>
       <c r="AA64">
-        <v>4.182999999999993</v>
+        <v>0.2163519005498467</v>
       </c>
       <c r="AB64">
-        <v>0.2163519005498467</v>
+        <v>4.121340212264144</v>
       </c>
       <c r="AC64">
-        <v>4.121340212264144</v>
+        <v>1</v>
       </c>
       <c r="AD64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE64">
         <v>0</v>
@@ -10563,9 +10504,6 @@
         <v>0</v>
       </c>
       <c r="AG64">
-        <v>0</v>
-      </c>
-      <c r="AH64">
         <v>2</v>
       </c>
     </row>
@@ -10579,10 +10517,10 @@
         <v>2.184962811831309</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>4.58602084681077</v>
       </c>
       <c r="E65">
-        <v>2.184962811831309</v>
+        <v>6.77098365864208</v>
       </c>
       <c r="F65">
         <v>16</v>
@@ -10608,28 +10546,31 @@
         <v>0.182</v>
       </c>
       <c r="U65">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="V65">
+        <v>86.205</v>
+      </c>
+      <c r="W65">
         <v>82.09099999999999</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>5.018</v>
-      </c>
-      <c r="X65">
-        <v>86.205</v>
       </c>
       <c r="Y65">
         <v>5.08</v>
       </c>
+      <c r="Z65">
+        <v>4.114000000000004</v>
+      </c>
       <c r="AA65">
-        <v>4.114000000000004</v>
+        <v>0.219737481769566</v>
       </c>
       <c r="AB65">
-        <v>0.219737481769566</v>
+        <v>4.164830609804707</v>
       </c>
       <c r="AC65">
-        <v>4.164830609804707</v>
+        <v>4</v>
       </c>
       <c r="AD65">
         <v>4</v>
@@ -10641,9 +10582,6 @@
         <v>4</v>
       </c>
       <c r="AG65">
-        <v>4</v>
-      </c>
-      <c r="AH65">
         <v>4</v>
       </c>
     </row>
@@ -10657,10 +10595,10 @@
         <v>1.883894246237271</v>
       </c>
       <c r="D66">
-        <v>1.656758060520721</v>
+        <v>5.103883702571897</v>
       </c>
       <c r="E66">
-        <v>3.540652306757991</v>
+        <v>6.987777948809168</v>
       </c>
       <c r="F66">
         <v>4</v>
@@ -10686,31 +10624,34 @@
         <v>0.141</v>
       </c>
       <c r="U66">
-        <v>0.124</v>
+        <v>0.382</v>
       </c>
       <c r="V66">
+        <v>87.31</v>
+      </c>
+      <c r="W66">
         <v>82.72199999999999</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <v>5.083</v>
-      </c>
-      <c r="X66">
-        <v>87.31</v>
       </c>
       <c r="Y66">
         <v>4.146</v>
       </c>
+      <c r="Z66">
+        <v>4.588000000000008</v>
+      </c>
       <c r="AA66">
-        <v>4.588000000000008</v>
+        <v>0.107890148212727</v>
       </c>
       <c r="AB66">
-        <v>0.107890148212727</v>
+        <v>3.742248278575651</v>
       </c>
       <c r="AC66">
-        <v>3.742248278575651</v>
+        <v>4</v>
       </c>
       <c r="AD66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE66">
         <v>1</v>
@@ -10719,9 +10660,6 @@
         <v>1</v>
       </c>
       <c r="AG66">
-        <v>1</v>
-      </c>
-      <c r="AH66">
         <v>1</v>
       </c>
     </row>
@@ -10735,10 +10673,10 @@
         <v>3.732469738817267</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>4.346961708012792</v>
       </c>
       <c r="E67">
-        <v>3.732469738817267</v>
+        <v>8.079431446830059</v>
       </c>
       <c r="F67">
         <v>16</v>
@@ -10764,42 +10702,42 @@
         <v>0.328</v>
       </c>
       <c r="U67">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="V67">
+        <v>87.499</v>
+      </c>
+      <c r="W67">
         <v>83.10599999999999</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>5.029</v>
-      </c>
-      <c r="X67">
-        <v>87.499</v>
       </c>
       <c r="Y67">
         <v>5.03</v>
       </c>
+      <c r="Z67">
+        <v>4.393000000000001</v>
+      </c>
       <c r="AA67">
-        <v>4.393000000000001</v>
+        <v>0.1447757796494421</v>
       </c>
       <c r="AB67">
-        <v>0.1447757796494421</v>
+        <v>4.393873533505668</v>
       </c>
       <c r="AC67">
-        <v>4.393873533505668</v>
+        <v>3</v>
       </c>
       <c r="AD67">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF67">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG67">
-        <v>0</v>
-      </c>
-      <c r="AH67">
         <v>5</v>
       </c>
     </row>
@@ -10813,10 +10751,10 @@
         <v>2.423916125401316</v>
       </c>
       <c r="D68">
-        <v>0.7912265072553517</v>
+        <v>4.797595647167371</v>
       </c>
       <c r="E68">
-        <v>3.215142632656668</v>
+        <v>7.221511772568686</v>
       </c>
       <c r="F68">
         <v>60</v>
@@ -10842,42 +10780,42 @@
         <v>0.193</v>
       </c>
       <c r="U68">
-        <v>0.063</v>
+        <v>0.382</v>
       </c>
       <c r="V68">
+        <v>85.95999999999999</v>
+      </c>
+      <c r="W68">
         <v>81.941</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>4.992</v>
-      </c>
-      <c r="X68">
-        <v>85.95999999999999</v>
       </c>
       <c r="Y68">
         <v>4.945</v>
       </c>
+      <c r="Z68">
+        <v>4.018999999999991</v>
+      </c>
       <c r="AA68">
-        <v>4.018999999999991</v>
+        <v>0.2421000248818141</v>
       </c>
       <c r="AB68">
-        <v>0.2421000248818141</v>
+        <v>3.981160857371786</v>
       </c>
       <c r="AC68">
-        <v>3.981160857371786</v>
+        <v>4</v>
       </c>
       <c r="AD68">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AE68">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AF68">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AG68">
-        <v>20</v>
-      </c>
-      <c r="AH68">
         <v>12</v>
       </c>
     </row>
@@ -10891,10 +10829,10 @@
         <v>1.659855800651459</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>4.915231905805096</v>
       </c>
       <c r="E69">
-        <v>1.659855800651459</v>
+        <v>6.575087706456555</v>
       </c>
       <c r="F69">
         <v>16</v>
@@ -10920,42 +10858,42 @@
         <v>0.129</v>
       </c>
       <c r="U69">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="V69">
+        <v>85.831</v>
+      </c>
+      <c r="W69">
         <v>81.971</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>4.922</v>
-      </c>
-      <c r="X69">
-        <v>85.831</v>
       </c>
       <c r="Y69">
         <v>4.955</v>
       </c>
+      <c r="Z69">
+        <v>3.859999999999999</v>
+      </c>
       <c r="AA69">
-        <v>3.859999999999999</v>
+        <v>0.2751295336787566</v>
       </c>
       <c r="AB69">
-        <v>0.2751295336787566</v>
+        <v>3.885879723689557</v>
       </c>
       <c r="AC69">
-        <v>3.885879723689557</v>
+        <v>3</v>
       </c>
       <c r="AD69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE69">
         <v>5</v>
       </c>
       <c r="AF69">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG69">
-        <v>6</v>
-      </c>
-      <c r="AH69">
         <v>0</v>
       </c>
     </row>
@@ -10969,10 +10907,10 @@
         <v>2.082020822939463</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>4.909456508412809</v>
       </c>
       <c r="E70">
-        <v>2.082020822939463</v>
+        <v>6.991477331352272</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -10998,42 +10936,42 @@
         <v>0.162</v>
       </c>
       <c r="U70">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="V70">
+        <v>85.056</v>
+      </c>
+      <c r="W70">
         <v>81.11199999999999</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>5.082</v>
-      </c>
-      <c r="X70">
-        <v>85.056</v>
       </c>
       <c r="Y70">
         <v>5.013</v>
       </c>
+      <c r="Z70">
+        <v>3.944000000000003</v>
+      </c>
       <c r="AA70">
-        <v>3.944000000000003</v>
+        <v>0.2885395537525346</v>
       </c>
       <c r="AB70">
-        <v>0.2885395537525346</v>
+        <v>3.890451003541915</v>
       </c>
       <c r="AC70">
-        <v>3.890451003541915</v>
+        <v>1</v>
       </c>
       <c r="AD70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG70">
-        <v>0</v>
-      </c>
-      <c r="AH70">
         <v>0</v>
       </c>
     </row>
@@ -11079,28 +11017,31 @@
         <v>0.382</v>
       </c>
       <c r="V71">
+        <v>85.792</v>
+      </c>
+      <c r="W71">
         <v>81.087</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>4.955</v>
-      </c>
-      <c r="X71">
-        <v>85.792</v>
       </c>
       <c r="Y71">
         <v>4.998</v>
       </c>
+      <c r="Z71">
+        <v>4.704999999999998</v>
+      </c>
       <c r="AA71">
-        <v>4.704999999999998</v>
+        <v>0.05313496280552643</v>
       </c>
       <c r="AB71">
-        <v>0.05313496280552643</v>
+        <v>4.745830474268415</v>
       </c>
       <c r="AC71">
-        <v>4.745830474268415</v>
+        <v>4</v>
       </c>
       <c r="AD71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE71">
         <v>1</v>
@@ -11109,9 +11050,6 @@
         <v>1</v>
       </c>
       <c r="AG71">
-        <v>1</v>
-      </c>
-      <c r="AH71">
         <v>1</v>
       </c>
     </row>
@@ -11125,10 +11063,10 @@
         <v>12.48435329419576</v>
       </c>
       <c r="D72">
-        <v>0.3348293986949055</v>
+        <v>4.568029653623354</v>
       </c>
       <c r="E72">
-        <v>12.81918269289067</v>
+        <v>17.05238294781912</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -11154,28 +11092,31 @@
         <v>1.044</v>
       </c>
       <c r="U72">
-        <v>0.028</v>
+        <v>0.382</v>
       </c>
       <c r="V72">
+        <v>86.16500000000001</v>
+      </c>
+      <c r="W72">
         <v>81.99299999999999</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>4.97</v>
-      </c>
-      <c r="X72">
-        <v>86.16500000000001</v>
       </c>
       <c r="Y72">
         <v>4.981</v>
       </c>
+      <c r="Z72">
+        <v>4.172000000000011</v>
+      </c>
       <c r="AA72">
-        <v>4.172000000000011</v>
+        <v>0.1912751677852316</v>
       </c>
       <c r="AB72">
-        <v>0.1912751677852316</v>
+        <v>4.181233802816913</v>
       </c>
       <c r="AC72">
-        <v>4.181233802816913</v>
+        <v>0</v>
       </c>
       <c r="AD72">
         <v>0</v>
@@ -11187,9 +11128,6 @@
         <v>0</v>
       </c>
       <c r="AG72">
-        <v>0</v>
-      </c>
-      <c r="AH72">
         <v>0</v>
       </c>
     </row>
@@ -11203,10 +11141,10 @@
         <v>3.367764226829153</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>4.80032065167439</v>
       </c>
       <c r="E73">
-        <v>3.367764226829153</v>
+        <v>8.168084878503544</v>
       </c>
       <c r="F73">
         <v>8</v>
@@ -11232,42 +11170,42 @@
         <v>0.268</v>
       </c>
       <c r="U73">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="V73">
+        <v>85.90600000000001</v>
+      </c>
+      <c r="W73">
         <v>81.911</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>4.963</v>
-      </c>
-      <c r="X73">
-        <v>85.90600000000001</v>
       </c>
       <c r="Y73">
         <v>4.943</v>
       </c>
+      <c r="Z73">
+        <v>3.995000000000005</v>
+      </c>
       <c r="AA73">
-        <v>3.995000000000005</v>
+        <v>0.2423028785982464</v>
       </c>
       <c r="AB73">
-        <v>0.2423028785982464</v>
+        <v>3.978900866411449</v>
       </c>
       <c r="AC73">
-        <v>3.978900866411449</v>
+        <v>1</v>
       </c>
       <c r="AD73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE73">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AF73">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG73">
-        <v>0</v>
-      </c>
-      <c r="AH73">
         <v>0</v>
       </c>
     </row>
@@ -11281,10 +11219,10 @@
         <v>1.422058319286224</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>4.603612525146931</v>
       </c>
       <c r="E74">
-        <v>1.422058319286224</v>
+        <v>6.025670844433156</v>
       </c>
       <c r="F74">
         <v>4</v>
@@ -11310,42 +11248,42 @@
         <v>0.118</v>
       </c>
       <c r="U74">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="V74">
+        <v>85.60899999999999</v>
+      </c>
+      <c r="W74">
         <v>81.375</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>5.026</v>
-      </c>
-      <c r="X74">
-        <v>85.60899999999999</v>
       </c>
       <c r="Y74">
         <v>4.925</v>
       </c>
+      <c r="Z74">
+        <v>4.233999999999995</v>
+      </c>
       <c r="AA74">
-        <v>4.233999999999995</v>
+        <v>0.1870571563533316</v>
       </c>
       <c r="AB74">
-        <v>0.1870571563533316</v>
+        <v>4.148915638678865</v>
       </c>
       <c r="AC74">
-        <v>4.148915638678865</v>
+        <v>2</v>
       </c>
       <c r="AD74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE74">
         <v>0</v>
       </c>
       <c r="AF74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG74">
-        <v>2</v>
-      </c>
-      <c r="AH74">
         <v>2</v>
       </c>
     </row>
@@ -11359,10 +11297,10 @@
         <v>1.587000124301409</v>
       </c>
       <c r="D75">
-        <v>0.3022857379621732</v>
+        <v>4.124041139341077</v>
       </c>
       <c r="E75">
-        <v>1.889285862263582</v>
+        <v>5.711041263642486</v>
       </c>
       <c r="F75">
         <v>8</v>
@@ -11388,42 +11326,42 @@
         <v>0.147</v>
       </c>
       <c r="U75">
-        <v>0.028</v>
+        <v>0.382</v>
       </c>
       <c r="V75">
+        <v>85.925</v>
+      </c>
+      <c r="W75">
         <v>81.896</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <v>4.294</v>
-      </c>
-      <c r="X75">
-        <v>85.925</v>
       </c>
       <c r="Y75">
         <v>4.936</v>
       </c>
+      <c r="Z75">
+        <v>4.028999999999996</v>
+      </c>
       <c r="AA75">
-        <v>4.028999999999996</v>
+        <v>0.0657731447009192</v>
       </c>
       <c r="AB75">
-        <v>0.0657731447009192</v>
+        <v>4.631379599441077</v>
       </c>
       <c r="AC75">
-        <v>4.631379599441077</v>
+        <v>2</v>
       </c>
       <c r="AD75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE75">
         <v>4</v>
       </c>
       <c r="AF75">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG75">
-        <v>0</v>
-      </c>
-      <c r="AH75">
         <v>0</v>
       </c>
     </row>
@@ -11437,10 +11375,10 @@
         <v>1.659001362684164</v>
       </c>
       <c r="D76">
-        <v>1.244251022013123</v>
+        <v>4.659842062833461</v>
       </c>
       <c r="E76">
-        <v>2.903252384697288</v>
+        <v>6.318843425517626</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -11466,31 +11404,34 @@
         <v>0.136</v>
       </c>
       <c r="U76">
-        <v>0.102</v>
+        <v>0.382</v>
       </c>
       <c r="V76">
+        <v>86.027</v>
+      </c>
+      <c r="W76">
         <v>81.92400000000001</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <v>4.945</v>
-      </c>
-      <c r="X76">
-        <v>86.027</v>
       </c>
       <c r="Y76">
         <v>4.94</v>
       </c>
+      <c r="Z76">
+        <v>4.102999999999994</v>
+      </c>
       <c r="AA76">
-        <v>4.102999999999994</v>
+        <v>0.2052156958323195</v>
       </c>
       <c r="AB76">
-        <v>0.2052156958323195</v>
+        <v>4.098851365015162</v>
       </c>
       <c r="AC76">
-        <v>4.098851365015162</v>
+        <v>1</v>
       </c>
       <c r="AD76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE76">
         <v>0</v>
@@ -11499,9 +11440,6 @@
         <v>0</v>
       </c>
       <c r="AG76">
-        <v>0</v>
-      </c>
-      <c r="AH76">
         <v>1</v>
       </c>
     </row>
@@ -11515,10 +11453,10 @@
         <v>2.360496555528554</v>
       </c>
       <c r="D77">
-        <v>1.028934395999626</v>
+        <v>4.624152226727732</v>
       </c>
       <c r="E77">
-        <v>3.389430951528181</v>
+        <v>6.984648782256286</v>
       </c>
       <c r="F77">
         <v>8</v>
@@ -11544,42 +11482,42 @@
         <v>0.195</v>
       </c>
       <c r="U77">
-        <v>0.08500000000000001</v>
+        <v>0.382</v>
       </c>
       <c r="V77">
+        <v>85.23399999999999</v>
+      </c>
+      <c r="W77">
         <v>81.051</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>5.098</v>
-      </c>
-      <c r="X77">
-        <v>85.23399999999999</v>
       </c>
       <c r="Y77">
         <v>5.034</v>
       </c>
+      <c r="Z77">
+        <v>4.182999999999993</v>
+      </c>
       <c r="AA77">
-        <v>4.182999999999993</v>
+        <v>0.2187425292852041</v>
       </c>
       <c r="AB77">
-        <v>0.2187425292852041</v>
+        <v>4.130486857591205</v>
       </c>
       <c r="AC77">
-        <v>4.130486857591205</v>
+        <v>3</v>
       </c>
       <c r="AD77">
+        <v>2</v>
+      </c>
+      <c r="AE77">
         <v>3</v>
-      </c>
-      <c r="AE77">
-        <v>2</v>
       </c>
       <c r="AF77">
         <v>3</v>
       </c>
       <c r="AG77">
-        <v>3</v>
-      </c>
-      <c r="AH77">
         <v>0</v>
       </c>
     </row>
@@ -11593,10 +11531,10 @@
         <v>1.821375601950706</v>
       </c>
       <c r="D78">
-        <v>1.31680533384274</v>
+        <v>4.701118107737633</v>
       </c>
       <c r="E78">
-        <v>3.138180935793446</v>
+        <v>6.522493709688339</v>
       </c>
       <c r="F78">
         <v>4</v>
@@ -11622,42 +11560,42 @@
         <v>0.148</v>
       </c>
       <c r="U78">
-        <v>0.107</v>
+        <v>0.382</v>
       </c>
       <c r="V78">
+        <v>85.98399999999999</v>
+      </c>
+      <c r="W78">
         <v>81.94799999999999</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>4.958</v>
-      </c>
-      <c r="X78">
-        <v>85.98399999999999</v>
       </c>
       <c r="Y78">
         <v>4.991</v>
       </c>
+      <c r="Z78">
+        <v>4.036000000000001</v>
+      </c>
       <c r="AA78">
-        <v>4.036000000000001</v>
+        <v>0.2284440039643207</v>
       </c>
       <c r="AB78">
-        <v>0.2284440039643207</v>
+        <v>4.062863251311014</v>
       </c>
       <c r="AC78">
-        <v>4.062863251311014</v>
+        <v>3</v>
       </c>
       <c r="AD78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG78">
-        <v>2</v>
-      </c>
-      <c r="AH78">
         <v>1</v>
       </c>
     </row>
@@ -11671,10 +11609,10 @@
         <v>2.655084112108307</v>
       </c>
       <c r="D79">
-        <v>1.006264754817304</v>
+        <v>4.631242606508555</v>
       </c>
       <c r="E79">
-        <v>3.661348866925611</v>
+        <v>7.286326718616862</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -11700,42 +11638,42 @@
         <v>0.219</v>
       </c>
       <c r="U79">
-        <v>0.083</v>
+        <v>0.382</v>
       </c>
       <c r="V79">
+        <v>85.908</v>
+      </c>
+      <c r="W79">
         <v>81.843</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>4.947</v>
-      </c>
-      <c r="X79">
-        <v>85.908</v>
       </c>
       <c r="Y79">
         <v>5.019</v>
       </c>
+      <c r="Z79">
+        <v>4.064999999999998</v>
+      </c>
       <c r="AA79">
-        <v>4.064999999999998</v>
+        <v>0.2169741697416981</v>
       </c>
       <c r="AB79">
-        <v>0.2169741697416981</v>
+        <v>4.124163129169191</v>
       </c>
       <c r="AC79">
-        <v>4.124163129169191</v>
+        <v>1</v>
       </c>
       <c r="AD79">
         <v>1</v>
       </c>
       <c r="AE79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF79">
         <v>0</v>
       </c>
       <c r="AG79">
-        <v>0</v>
-      </c>
-      <c r="AH79">
         <v>0</v>
       </c>
     </row>
@@ -11749,10 +11687,10 @@
         <v>1.374700479802236</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>3.861291053562163</v>
       </c>
       <c r="E80">
-        <v>1.374700479802236</v>
+        <v>5.235991533364399</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -11778,42 +11716,42 @@
         <v>0.136</v>
       </c>
       <c r="U80">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="V80">
+        <v>87.432</v>
+      </c>
+      <c r="W80">
         <v>83.21899999999999</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>5.037</v>
-      </c>
-      <c r="X80">
-        <v>87.432</v>
       </c>
       <c r="Y80">
         <v>5.914</v>
       </c>
+      <c r="Z80">
+        <v>4.213000000000008</v>
+      </c>
       <c r="AA80">
-        <v>4.213000000000008</v>
+        <v>0.1955850937574152</v>
       </c>
       <c r="AB80">
-        <v>0.1955850937574152</v>
+        <v>4.946532062735765</v>
       </c>
       <c r="AC80">
-        <v>4.946532062735765</v>
+        <v>1</v>
       </c>
       <c r="AD80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE80">
         <v>0</v>
       </c>
       <c r="AF80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG80">
-        <v>1</v>
-      </c>
-      <c r="AH80">
         <v>0</v>
       </c>
     </row>
@@ -11827,10 +11765,10 @@
         <v>2.988601609040704</v>
       </c>
       <c r="D81">
-        <v>2.353523767119555</v>
+        <v>4.756857561056455</v>
       </c>
       <c r="E81">
-        <v>5.342125376160259</v>
+        <v>7.745459170097159</v>
       </c>
       <c r="F81">
         <v>2</v>
@@ -11856,42 +11794,42 @@
         <v>0.24</v>
       </c>
       <c r="U81">
-        <v>0.189</v>
+        <v>0.382</v>
       </c>
       <c r="V81">
+        <v>86.857</v>
+      </c>
+      <c r="W81">
         <v>82.77</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>5.07</v>
-      </c>
-      <c r="X81">
-        <v>86.857</v>
       </c>
       <c r="Y81">
         <v>4.981</v>
       </c>
+      <c r="Z81">
+        <v>4.087000000000003</v>
+      </c>
       <c r="AA81">
-        <v>4.087000000000003</v>
+        <v>0.240518717885979</v>
       </c>
       <c r="AB81">
-        <v>0.240518717885979</v>
+        <v>4.015255818540437</v>
       </c>
       <c r="AC81">
-        <v>4.015255818540437</v>
+        <v>1</v>
       </c>
       <c r="AD81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG81">
-        <v>0</v>
-      </c>
-      <c r="AH81">
         <v>0</v>
       </c>
     </row>
@@ -11905,10 +11843,10 @@
         <v>1.661726007149684</v>
       </c>
       <c r="D82">
-        <v>0.1204149280543249</v>
+        <v>4.599850251675212</v>
       </c>
       <c r="E82">
-        <v>1.782140935204009</v>
+        <v>6.261576258824896</v>
       </c>
       <c r="F82">
         <v>2</v>
@@ -11934,42 +11872,42 @@
         <v>0.138</v>
       </c>
       <c r="U82">
-        <v>0.01</v>
+        <v>0.382</v>
       </c>
       <c r="V82">
+        <v>86.089</v>
+      </c>
+      <c r="W82">
         <v>81.992</v>
       </c>
-      <c r="W82">
+      <c r="X82">
         <v>4.963</v>
-      </c>
-      <c r="X82">
-        <v>86.089</v>
       </c>
       <c r="Y82">
         <v>5.03</v>
       </c>
+      <c r="Z82">
+        <v>4.096999999999994</v>
+      </c>
       <c r="AA82">
-        <v>4.096999999999994</v>
+        <v>0.2113741762265089</v>
       </c>
       <c r="AB82">
-        <v>0.2113741762265089</v>
+        <v>4.152309087245612</v>
       </c>
       <c r="AC82">
-        <v>4.152309087245612</v>
+        <v>2</v>
       </c>
       <c r="AD82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG82">
-        <v>0</v>
-      </c>
-      <c r="AH82">
         <v>1</v>
       </c>
     </row>
@@ -11983,10 +11921,10 @@
         <v>2.648171175464675</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>4.749302295903783</v>
       </c>
       <c r="E83">
-        <v>2.648171175464675</v>
+        <v>7.397473471368459</v>
       </c>
       <c r="F83">
         <v>8</v>
@@ -12012,31 +11950,34 @@
         <v>0.213</v>
       </c>
       <c r="U83">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="V83">
+        <v>86.935</v>
+      </c>
+      <c r="W83">
         <v>82.96899999999999</v>
       </c>
-      <c r="W83">
+      <c r="X83">
         <v>4.918</v>
-      </c>
-      <c r="X83">
-        <v>86.935</v>
       </c>
       <c r="Y83">
         <v>4.987</v>
       </c>
+      <c r="Z83">
+        <v>3.966000000000008</v>
+      </c>
       <c r="AA83">
-        <v>3.966000000000008</v>
+        <v>0.2400403429147731</v>
       </c>
       <c r="AB83">
-        <v>0.2400403429147731</v>
+        <v>4.021643350955681</v>
       </c>
       <c r="AC83">
-        <v>4.021643350955681</v>
+        <v>4</v>
       </c>
       <c r="AD83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE83">
         <v>2</v>
@@ -12045,9 +11986,6 @@
         <v>2</v>
       </c>
       <c r="AG83">
-        <v>2</v>
-      </c>
-      <c r="AH83">
         <v>2</v>
       </c>
     </row>
@@ -12061,10 +11999,10 @@
         <v>2.355384044323295</v>
       </c>
       <c r="D84">
-        <v>0.6609496042743939</v>
+        <v>4.590595433323973</v>
       </c>
       <c r="E84">
-        <v>3.016333648597689</v>
+        <v>6.945979477647267</v>
       </c>
       <c r="F84">
         <v>2</v>
@@ -12090,42 +12028,42 @@
         <v>0.196</v>
       </c>
       <c r="U84">
-        <v>0.055</v>
+        <v>0.382</v>
       </c>
       <c r="V84">
+        <v>86.18300000000001</v>
+      </c>
+      <c r="W84">
         <v>82.014</v>
       </c>
-      <c r="W84">
+      <c r="X84">
         <v>5.011</v>
-      </c>
-      <c r="X84">
-        <v>86.18300000000001</v>
       </c>
       <c r="Y84">
         <v>5.001</v>
       </c>
+      <c r="Z84">
+        <v>4.169000000000011</v>
+      </c>
       <c r="AA84">
-        <v>4.169000000000011</v>
+        <v>0.2019668985368162</v>
       </c>
       <c r="AB84">
-        <v>0.2019668985368162</v>
+        <v>4.16068030333268</v>
       </c>
       <c r="AC84">
-        <v>4.16068030333268</v>
+        <v>1</v>
       </c>
       <c r="AD84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE84">
         <v>0</v>
       </c>
       <c r="AF84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG84">
-        <v>2</v>
-      </c>
-      <c r="AH84">
         <v>0</v>
       </c>
     </row>
@@ -12139,10 +12077,10 @@
         <v>15.58946968855975</v>
       </c>
       <c r="D85">
-        <v>3.698554347164378</v>
+        <v>4.822006008931033</v>
       </c>
       <c r="E85">
-        <v>19.28802403572413</v>
+        <v>20.41147569749079</v>
       </c>
       <c r="F85">
         <v>16</v>
@@ -12168,28 +12106,31 @@
         <v>1.235</v>
       </c>
       <c r="U85">
-        <v>0.293</v>
+        <v>0.382</v>
       </c>
       <c r="V85">
+        <v>86.983</v>
+      </c>
+      <c r="W85">
         <v>82.965</v>
       </c>
-      <c r="W85">
+      <c r="X85">
         <v>5.076</v>
-      </c>
-      <c r="X85">
-        <v>86.983</v>
       </c>
       <c r="Y85">
         <v>5.004</v>
       </c>
+      <c r="Z85">
+        <v>4.018000000000001</v>
+      </c>
       <c r="AA85">
-        <v>4.018000000000001</v>
+        <v>0.2633150821304128</v>
       </c>
       <c r="AB85">
-        <v>0.2633150821304128</v>
+        <v>3.961007092198582</v>
       </c>
       <c r="AC85">
-        <v>3.961007092198582</v>
+        <v>4</v>
       </c>
       <c r="AD85">
         <v>4</v>
@@ -12201,9 +12142,6 @@
         <v>4</v>
       </c>
       <c r="AG85">
-        <v>4</v>
-      </c>
-      <c r="AH85">
         <v>4</v>
       </c>
     </row>
@@ -12217,10 +12155,10 @@
         <v>7.958783337565925</v>
       </c>
       <c r="D86">
-        <v>2.413229863457968</v>
+        <v>4.655827312327999</v>
       </c>
       <c r="E86">
-        <v>10.37201320102389</v>
+        <v>12.61461064989392</v>
       </c>
       <c r="F86">
         <v>16</v>
@@ -12246,44 +12184,44 @@
         <v>0.653</v>
       </c>
       <c r="U86">
-        <v>0.198</v>
+        <v>0.382</v>
       </c>
       <c r="V86">
+        <v>86.614</v>
+      </c>
+      <c r="W86">
         <v>82.545</v>
       </c>
-      <c r="W86">
+      <c r="X86">
         <v>4.997</v>
-      </c>
-      <c r="X86">
-        <v>86.614</v>
       </c>
       <c r="Y86">
         <v>5.038</v>
       </c>
+      <c r="Z86">
+        <v>4.069000000000003</v>
+      </c>
       <c r="AA86">
-        <v>4.069000000000003</v>
+        <v>0.2280658638486106</v>
       </c>
       <c r="AB86">
-        <v>0.2280658638486106</v>
+        <v>4.102385831498903</v>
       </c>
       <c r="AC86">
-        <v>4.102385831498903</v>
+        <v>2</v>
       </c>
       <c r="AD86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE86">
         <v>0</v>
       </c>
       <c r="AF86">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG86">
         <v>8</v>
       </c>
-      <c r="AH86">
-        <v>8</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -12295,10 +12233,10 @@
         <v>6.285480925702797</v>
       </c>
       <c r="D87">
-        <v>0.6237500155277584</v>
+        <v>4.582163575607764</v>
       </c>
       <c r="E87">
-        <v>6.909230941230556</v>
+        <v>10.86764450131056</v>
       </c>
       <c r="F87">
         <v>2</v>
@@ -12324,42 +12262,42 @@
         <v>0.524</v>
       </c>
       <c r="U87">
-        <v>0.052</v>
+        <v>0.382</v>
       </c>
       <c r="V87">
+        <v>86.82599999999999</v>
+      </c>
+      <c r="W87">
         <v>82.75</v>
       </c>
-      <c r="W87">
+      <c r="X87">
         <v>4.944</v>
-      </c>
-      <c r="X87">
-        <v>86.82599999999999</v>
       </c>
       <c r="Y87">
         <v>5.056</v>
       </c>
+      <c r="Z87">
+        <v>4.075999999999993</v>
+      </c>
       <c r="AA87">
-        <v>4.075999999999993</v>
+        <v>0.2129538763493641</v>
       </c>
       <c r="AB87">
-        <v>0.2129538763493641</v>
+        <v>4.168336569579282</v>
       </c>
       <c r="AC87">
-        <v>4.168336569579282</v>
+        <v>2</v>
       </c>
       <c r="AD87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE87">
         <v>0</v>
       </c>
       <c r="AF87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG87">
-        <v>1</v>
-      </c>
-      <c r="AH87">
         <v>1</v>
       </c>
     </row>
@@ -12373,10 +12311,10 @@
         <v>2.452762905916839</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>4.756118934315902</v>
       </c>
       <c r="E88">
-        <v>2.452762905916839</v>
+        <v>7.20888184023274</v>
       </c>
       <c r="F88">
         <v>4</v>
@@ -12402,42 +12340,42 @@
         <v>0.197</v>
       </c>
       <c r="U88">
-        <v>0</v>
+        <v>0.382</v>
       </c>
       <c r="V88">
+        <v>87.212</v>
+      </c>
+      <c r="W88">
         <v>83.164</v>
       </c>
-      <c r="W88">
+      <c r="X88">
         <v>5.041</v>
-      </c>
-      <c r="X88">
-        <v>87.212</v>
       </c>
       <c r="Y88">
         <v>5.001</v>
       </c>
+      <c r="Z88">
+        <v>4.048000000000002</v>
+      </c>
       <c r="AA88">
-        <v>4.048000000000002</v>
+        <v>0.2453063241106715</v>
       </c>
       <c r="AB88">
-        <v>0.2453063241106715</v>
+        <v>4.015879389010119</v>
       </c>
       <c r="AC88">
-        <v>4.015879389010119</v>
+        <v>1</v>
       </c>
       <c r="AD88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE88">
         <v>0</v>
       </c>
       <c r="AF88">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG88">
-        <v>4</v>
-      </c>
-      <c r="AH88">
         <v>0</v>
       </c>
     </row>
@@ -12456,7 +12394,7 @@
         <v>0.19</v>
       </c>
       <c r="U89">
-        <v>0.08500000000000001</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="90">
@@ -12474,7 +12412,7 @@
         <v>0.187</v>
       </c>
       <c r="U90">
-        <v>0.217</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="91">
@@ -12492,7 +12430,7 @@
         <v>0.168</v>
       </c>
       <c r="U91">
-        <v>0.078</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="92">
@@ -12510,7 +12448,7 @@
         <v>0.212</v>
       </c>
       <c r="U92">
-        <v>0.08400000000000001</v>
+        <v>0.382</v>
       </c>
     </row>
   </sheetData>
